--- a/alllocations.xlsx
+++ b/alllocations.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weert\Documents\GitHub\MAIO_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{30990F61-290C-42C0-A9A3-B6617E69F465}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBB9CD0-8BF0-4E5E-AF04-99F6BBFCCD40}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allr" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="9">
   <si>
     <t>S4</t>
   </si>
@@ -52,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -917,6 +924,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Lag 0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1257,6 +1289,712 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Lag 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>allr!$AC$21:$AC$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0340779837486604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0294359977529823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98586427433690582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93538101800254292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>allr!$AE$21:$AE$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.8541428571428533</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.4688571428571398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.6106728571428497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.8210680271428532</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.8289285714285641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF73-4AFA-B8A9-49D6A3B3F4B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="472689464"/>
+        <c:axId val="472688808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="472689464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472688808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="472688808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472689464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Lag 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>allr!$AC$21:$AC$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0340779837486604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0294359977529823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98586427433690582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93538101800254292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>allr!$AF$21:$AF$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2.16928571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.8541428571428533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4688571428571398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.6106728571428497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.8210680271428532</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29C8-48F7-BFC3-84C9369FC92B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="481038072"/>
+        <c:axId val="481042992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="481038072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481042992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="481042992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481038072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1337,6 +2075,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1854,6 +2672,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2438,6 +4288,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BEC9F9-B9F6-4A2F-B868-88EB2256AA1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafiek 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE67E80-A514-4C0E-8408-840766DCD21C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2742,11 +4664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4185,7 +6107,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2005.5</v>
       </c>
@@ -4278,7 +6200,7 @@
         <v>7.9999999999999905E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2006.5</v>
       </c>
@@ -4375,7 +6297,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2007.5</v>
       </c>
@@ -4472,7 +6394,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2008.5</v>
       </c>
@@ -4568,8 +6490,12 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AE20">
+        <f>(D19+H19+L19+P19+T19+X19+AB19)/7</f>
+        <v>-2.16928571428571</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2009.5</v>
       </c>
@@ -4669,8 +6595,15 @@
         <f>(D21+H21+L21+P21+T21+X21+AB21)/7</f>
         <v>-3.4688571428571398</v>
       </c>
+      <c r="AE21">
+        <f>(D20+H20+L20+P20+T20+X20+AB20)/7</f>
+        <v>-1.8541428571428533</v>
+      </c>
+      <c r="AF21">
+        <v>-2.16928571428571</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2010.5</v>
       </c>
@@ -4770,8 +6703,15 @@
         <f t="shared" ref="AD22:AD25" si="8">(D22+H22+L22+P22+T22+X22+AB22)/7</f>
         <v>-2.6106728571428497</v>
       </c>
+      <c r="AE22">
+        <f t="shared" ref="AE22:AF30" si="9">(D21+H21+L21+P21+T21+X21+AB21)/7</f>
+        <v>-3.4688571428571398</v>
+      </c>
+      <c r="AF22">
+        <v>-1.8541428571428533</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2011.5</v>
       </c>
@@ -4871,8 +6811,15 @@
         <f t="shared" si="8"/>
         <v>-2.8210680271428532</v>
       </c>
+      <c r="AE23">
+        <f t="shared" si="9"/>
+        <v>-2.6106728571428497</v>
+      </c>
+      <c r="AF23">
+        <v>-3.4688571428571398</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2012.5</v>
       </c>
@@ -4965,8 +6912,15 @@
         <v>0</v>
       </c>
       <c r="AD24" s="1"/>
+      <c r="AE24">
+        <f t="shared" si="9"/>
+        <v>-2.8210680271428532</v>
+      </c>
+      <c r="AF24">
+        <v>-2.6106728571428497</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2013.5</v>
       </c>
@@ -5066,8 +7020,15 @@
         <f t="shared" si="8"/>
         <v>-2.4131428585714256</v>
       </c>
+      <c r="AE25">
+        <f t="shared" si="9"/>
+        <v>-1.8289285714285641</v>
+      </c>
+      <c r="AF25">
+        <v>-2.8210680271428532</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2014.5</v>
       </c>
@@ -5164,11 +7125,18 @@
         <v>#VALUE!</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" ref="AD22:AD30" si="9">D26+H26+L26+P26+T26+X26+AB26</f>
+        <f t="shared" ref="AD26:AD30" si="10">D26+H26+L26+P26+T26+X26+AB26</f>
         <v>-9.8509999999999813</v>
       </c>
+      <c r="AE26">
+        <f>(D25+H25+L25+P25+T25+X25+AB25)/7</f>
+        <v>-2.4131428585714256</v>
+      </c>
+      <c r="AF26">
+        <v>-1.8289285714285641</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2015.5</v>
       </c>
@@ -5265,11 +7233,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="AD27" s="1">
+        <f t="shared" si="10"/>
+        <v>-20.049999999999986</v>
+      </c>
+      <c r="AE27">
         <f t="shared" si="9"/>
-        <v>-20.049999999999986</v>
+        <v>-1.4072857142857116</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2016.5</v>
       </c>
@@ -5366,11 +7338,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="AD28" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE28">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>-2.8642857142857125</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2017.5</v>
       </c>
@@ -5467,11 +7443,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="AD29" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE29" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2018.5</v>
       </c>
@@ -5568,11 +7548,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="AD30" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE30" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>AVERAGE(B2:B30)</f>
         <v>94.728961173323214</v>
@@ -5582,23 +7566,23 @@
         <v>102.81089894099614</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31" si="10">AVERAGE(J2:J30)</f>
+        <f t="shared" ref="J31" si="11">AVERAGE(J2:J30)</f>
         <v>108.83463642708084</v>
       </c>
       <c r="N31">
-        <f t="shared" ref="N31" si="11">AVERAGE(N2:N30)</f>
+        <f t="shared" ref="N31" si="12">AVERAGE(N2:N30)</f>
         <v>66.884911298592428</v>
       </c>
       <c r="R31">
-        <f t="shared" ref="R31" si="12">AVERAGE(R2:R30)</f>
+        <f t="shared" ref="R31" si="13">AVERAGE(R2:R30)</f>
         <v>100.72534087219336</v>
       </c>
       <c r="V31">
-        <f t="shared" ref="V31" si="13">AVERAGE(V2:V30)</f>
+        <f t="shared" ref="V31" si="14">AVERAGE(V2:V30)</f>
         <v>77.033135545342873</v>
       </c>
       <c r="Z31">
-        <f t="shared" ref="Z31" si="14">AVERAGE(Z2:Z30)</f>
+        <f t="shared" ref="Z31" si="15">AVERAGE(Z2:Z30)</f>
         <v>102.66676106624749</v>
       </c>
     </row>

--- a/alllocations.xlsx
+++ b/alllocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weert\Documents\GitHub\MAIO_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C8AAC-ACB8-4B19-9AE5-B3DE7B01B19D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE9B0B7-946A-4ADA-A5C0-B5D70FF6BC01}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="15">
   <si>
     <t>S4</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>in sigma units</t>
+  </si>
+  <si>
+    <t>Values from file</t>
+  </si>
+  <si>
+    <t>Annual velocities</t>
   </si>
 </sst>
 </file>
@@ -907,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI38"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +934,7 @@
     <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>3.8462000000000003E-2</v>
       </c>
@@ -955,7 +961,7 @@
         <v>92.735246532886947</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2.9</v>
       </c>
@@ -982,7 +988,7 @@
         <v>90.165822187424979</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1016,8 +1022,14 @@
       <c r="AH3" t="s">
         <v>12</v>
       </c>
+      <c r="AI3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1990.5</v>
       </c>
@@ -1121,8 +1133,11 @@
         <f>(B4*$A$1+$E$1*F4+$I$1*J4+$M$1*N4+$Q$1*R4+$U$1*V4+$Y$1*Z4)/SUM($A$1:$Y$1)</f>
         <v>#VALUE!</v>
       </c>
+      <c r="AJ4">
+        <v>96.19</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1991.5</v>
       </c>
@@ -1226,8 +1241,11 @@
         <f t="shared" ref="AI5:AI34" si="9">(B5*$A$1+$E$1*F5+$I$1*J5+$M$1*N5+$Q$1*R5+$U$1*V5+$Y$1*Z5)/SUM($A$1:$Y$1)</f>
         <v>#VALUE!</v>
       </c>
+      <c r="AJ5">
+        <v>93.48</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1992.5</v>
       </c>
@@ -1332,7 +1350,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1993.5</v>
       </c>
@@ -1436,8 +1454,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AJ7">
+        <v>96.43</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1994.5</v>
       </c>
@@ -1542,7 +1563,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1995.5</v>
       </c>
@@ -1646,8 +1667,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AJ9">
+        <v>95.36</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1996.5</v>
       </c>
@@ -1751,8 +1775,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AJ10">
+        <v>99.9</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1997.5</v>
       </c>
@@ -1856,8 +1883,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AJ11">
+        <v>92.45</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1998.5</v>
       </c>
@@ -1961,8 +1991,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AJ12">
+        <v>90.43</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1999.5</v>
       </c>
@@ -2066,8 +2099,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AJ13">
+        <v>90.56</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2000.5</v>
       </c>
@@ -2171,8 +2207,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AJ14">
+        <v>83.86</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2001.5</v>
       </c>
@@ -2276,8 +2315,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AJ15">
+        <v>91.3</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2002.5</v>
       </c>
@@ -2381,8 +2423,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AJ16">
+        <v>90.23</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2003.5</v>
       </c>
@@ -2486,8 +2531,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AJ17">
+        <v>90.19</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2004.5</v>
       </c>
@@ -2591,8 +2639,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AJ18">
+        <v>88.26</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2005.5</v>
       </c>
@@ -2696,8 +2747,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AJ19">
+        <v>90.16</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2006.5</v>
       </c>
@@ -2805,8 +2859,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AJ20">
+        <v>87.06</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2007.5</v>
       </c>
@@ -2914,8 +2971,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AJ21">
+        <v>85.47</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2008.5</v>
       </c>
@@ -3028,8 +3088,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
+      <c r="AJ22">
+        <v>90.86</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2009.5</v>
       </c>
@@ -3148,8 +3211,11 @@
         <f t="shared" si="9"/>
         <v>93.590110939823461</v>
       </c>
+      <c r="AJ23">
+        <v>90.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2010.5</v>
       </c>
@@ -3268,8 +3334,11 @@
         <f t="shared" si="9"/>
         <v>95.320202330647447</v>
       </c>
+      <c r="AJ24">
+        <v>86.69</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2011.5</v>
       </c>
@@ -3388,8 +3457,11 @@
         <f t="shared" si="9"/>
         <v>90.883352102901085</v>
       </c>
+      <c r="AJ25">
+        <v>89.55</v>
+      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2012.5</v>
       </c>
@@ -3503,7 +3575,7 @@
         <v>94.763467045522006</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2013.5</v>
       </c>
@@ -3623,7 +3695,7 @@
         <v>88.099179779681265</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2014.5</v>
       </c>
@@ -3743,7 +3815,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2015.5</v>
       </c>
@@ -3861,7 +3933,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2016.5</v>
       </c>
@@ -3972,7 +4044,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2017.5</v>
       </c>
@@ -4091,7 +4163,7 @@
         <v>89.740510807266958</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2018.5</v>
       </c>
@@ -4263,6 +4335,7 @@
         <v>93.383520760539483</v>
       </c>
       <c r="AB34" s="1"/>
+      <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
       <c r="AI34">
         <f t="shared" si="9"/>

--- a/alllocations.xlsx
+++ b/alllocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weert\Documents\GitHub\MAIO_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE9B0B7-946A-4ADA-A5C0-B5D70FF6BC01}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F69570-EDB2-4910-8F04-B583DBE2AB08}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="26">
   <si>
     <t>S4</t>
   </si>
@@ -68,10 +68,43 @@
     <t>in sigma units</t>
   </si>
   <si>
-    <t>Values from file</t>
+    <t>Annual velocities</t>
   </si>
   <si>
-    <t>Annual velocities</t>
+    <t>Weighting &gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Site: &gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Mass balance (m/yr)</t>
+  </si>
+  <si>
+    <t>Annual velocity (m/yr)</t>
+  </si>
+  <si>
+    <t>Annual velocity/mean annual velocity (-)</t>
+  </si>
+  <si>
+    <t>Time (yr)</t>
+  </si>
+  <si>
+    <t>Mean velocity per site</t>
+  </si>
+  <si>
+    <t>Mean ratio over mean, equal weights</t>
+  </si>
+  <si>
+    <t>Mean mass balance, equal weights</t>
+  </si>
+  <si>
+    <t>Mean velocity, all sites, all years available</t>
+  </si>
+  <si>
+    <t>Values from file (e-mail)</t>
+  </si>
+  <si>
+    <t>If the "Annual velocity/mean annual velocity (-)" = 1, a nan for velocity was replaced by the sites mean value over all years</t>
   </si>
 </sst>
 </file>
@@ -913,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ38"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,637 +968,424 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>3.8462000000000003E-2</v>
-      </c>
-      <c r="E1">
-        <v>3.8462000000000003E-2</v>
-      </c>
-      <c r="I1">
-        <v>0.14102999999999999</v>
-      </c>
-      <c r="M1">
-        <v>0.16239000000000001</v>
-      </c>
-      <c r="Q1">
-        <v>0.10256</v>
-      </c>
-      <c r="U1">
-        <v>0.17521</v>
-      </c>
-      <c r="Y1">
-        <v>0.34188000000000002</v>
-      </c>
-      <c r="AI1">
-        <f>A1*B33+E1*F33+I1*J33+M1*N33+Q1*R33+U1*V33+Y1*Z33</f>
-        <v>92.735246532886947</v>
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>3.8462000000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>3.8462000000000003E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.14102999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.16239000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.10256</v>
+      </c>
+      <c r="U2">
+        <v>0.17521</v>
+      </c>
+      <c r="Y2">
+        <v>0.34188000000000002</v>
+      </c>
+      <c r="AI2">
+        <f>A2*B36+E2*F36+I2*J36+M2*N36+Q2*R36+U2*V36+Y2*Z36</f>
+        <v>92.735246532886947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2.9</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>5.6</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>16</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>17.600000000000001</v>
       </c>
-      <c r="Q2">
+      <c r="Q3">
         <v>11.3</v>
       </c>
-      <c r="U2">
+      <c r="U3">
         <v>19.5</v>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <v>13.1</v>
       </c>
-      <c r="AI2">
-        <f>(A2*B34+E2*F34+I2*J34+M2*N34+Q2*R34+U2*V34+Y2*Z34)/SUM(A2:Y2)</f>
+      <c r="AI3">
+        <f>(A3*B37+E3*F37+I3*J37+M3*N37+Q3*R37+U3*V37+Y3*Z37)/SUM(A3:Y3)</f>
         <v>90.165822187424979</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1990.5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="e">
-        <f>B4/$B$33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-4.2300000000000004</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1990.5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="e">
-        <f>F4/$F$33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H4" s="1">
-        <v>-3.64</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1990.5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" t="e">
-        <f>J4/$J$33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-3.2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1990.5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" t="e">
-        <f>N4/$N$33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P4" s="1">
-        <v>-2.77</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1990.5</v>
-      </c>
-      <c r="R4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" t="e">
-        <f>R4/$R$33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T4" s="1">
-        <v>-1.75</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1990.5</v>
-      </c>
-      <c r="V4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W4" t="e">
-        <f>V4/$V$33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X4" s="1">
-        <v>-1.46999999999999</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>1990.5</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA4" t="e">
-        <f>Z4/$Z$33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>-0.26</v>
-      </c>
-      <c r="AG4" s="1">
-        <f>($A$1*D4+$E$1*H4+$I$1*L4+$M$1*P4+$Q$1*T4+$U$1*X4+$Y$1*AB4)/(SUM($A$1+$E$1+$I$1+$M$1+$Q$1+$U$1+$Y$1))</f>
-        <v>-1.7297501185007091</v>
-      </c>
-      <c r="AH4" s="1">
-        <f>(AG4-$AG$32)/$AG$31</f>
-        <v>-0.96678811962435673</v>
-      </c>
-      <c r="AI4" t="e">
-        <f>(B4*$A$1+$E$1*F4+$I$1*J4+$M$1*N4+$Q$1*R4+$U$1*V4+$Y$1*Z4)/SUM($A$1:$Y$1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ4">
-        <v>96.19</v>
+      <c r="A4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1991.5</v>
+      <c r="A5" t="s">
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="e">
-        <f t="shared" ref="C5:C32" si="0">B5/$B$33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-2.1399999999999899</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1991.5</v>
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="e">
-        <f t="shared" ref="G5:G32" si="1">F5/$F$33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H5" s="1">
-        <v>-2.02999999999999</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1991.5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" t="e">
-        <f t="shared" ref="K5:K32" si="2">J5/$J$33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-1.51999999999999</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1991.5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" t="e">
-        <f t="shared" ref="O5:O32" si="3">N5/$N$33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P5" s="1">
-        <v>-1.02</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1991.5</v>
-      </c>
-      <c r="R5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" t="e">
-        <f t="shared" ref="S5:S32" si="4">R5/$R$33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T5" s="1">
-        <v>-0.29999999999999899</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1991.5</v>
-      </c>
-      <c r="V5" t="s">
-        <v>2</v>
-      </c>
-      <c r="W5" t="e">
-        <f t="shared" ref="W5:W32" si="5">V5/$V$33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>1991.5</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA5" t="e">
-        <f t="shared" ref="AA5:AA32" si="6">Z5/$Z$33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="AG5" s="1">
-        <f t="shared" ref="AG5:AG29" si="7">($A$1*D5+$E$1*H5+$I$1*L5+$M$1*P5+$Q$1*T5+$U$1*X5+$Y$1*AB5)/(SUM($A$1+$E$1+$I$1+$M$1+$Q$1+$U$1+$Y$1))</f>
-        <v>-0.39987873927243334</v>
-      </c>
-      <c r="AH5" s="1">
-        <f t="shared" ref="AH5:AH29" si="8">(AG5-$AG$32)/$AG$31</f>
-        <v>1.9623060647204702</v>
-      </c>
-      <c r="AI5" t="e">
-        <f t="shared" ref="AI5:AI34" si="9">(B5*$A$1+$E$1*F5+$I$1*J5+$M$1*N5+$Q$1*R5+$U$1*V5+$Y$1*Z5)/SUM($A$1:$Y$1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ5">
-        <v>93.48</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1992.5</v>
+      <c r="A6" t="s">
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-3.0499999999999901</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1992.5</v>
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" s="1">
-        <v>-3.04</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1992.5</v>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-2.7099999999999902</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1992.5</v>
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
       </c>
       <c r="N6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P6" s="1">
-        <v>-1.54</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1992.5</v>
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>19</v>
       </c>
       <c r="R6" t="s">
-        <v>2</v>
-      </c>
-      <c r="S6" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T6" s="1">
-        <v>-1.6</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1992.5</v>
+        <v>17</v>
+      </c>
+      <c r="S6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" t="s">
+        <v>19</v>
       </c>
       <c r="V6" t="s">
-        <v>2</v>
-      </c>
-      <c r="W6" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X6" s="1">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>1992.5</v>
+        <v>17</v>
+      </c>
+      <c r="W6" t="s">
+        <v>18</v>
+      </c>
+      <c r="X6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>19</v>
       </c>
       <c r="Z6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA6" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0.22999999999999901</v>
-      </c>
-      <c r="AG6" s="1">
-        <f t="shared" si="7"/>
-        <v>-0.97650433902603273</v>
-      </c>
-      <c r="AH6" s="1">
-        <f t="shared" si="8"/>
-        <v>0.69226542984137607</v>
-      </c>
-      <c r="AI6" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>17</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1993.5</v>
+        <v>1990.5</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="e">
-        <f t="shared" si="0"/>
+        <f>B7/$B$36</f>
         <v>#VALUE!</v>
       </c>
       <c r="D7" s="1">
-        <v>-3.58</v>
+        <v>-4.2300000000000004</v>
       </c>
       <c r="E7" s="1">
-        <v>1993.5</v>
+        <v>1990.5</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
       </c>
       <c r="G7" t="e">
-        <f t="shared" si="1"/>
+        <f>F7/$F$36</f>
         <v>#VALUE!</v>
       </c>
       <c r="H7" s="1">
-        <v>-3.48999999999999</v>
+        <v>-3.64</v>
       </c>
       <c r="I7" s="1">
-        <v>1993.5</v>
+        <v>1990.5</v>
       </c>
       <c r="J7" t="s">
         <v>2</v>
       </c>
       <c r="K7" t="e">
-        <f t="shared" si="2"/>
+        <f>J7/$J$36</f>
         <v>#VALUE!</v>
       </c>
       <c r="L7" s="1">
-        <v>-3.08</v>
+        <v>-3.2</v>
       </c>
       <c r="M7" s="1">
-        <v>1993.5</v>
+        <v>1990.5</v>
       </c>
       <c r="N7" t="s">
         <v>2</v>
       </c>
       <c r="O7" t="e">
-        <f t="shared" si="3"/>
+        <f>N7/$N$36</f>
         <v>#VALUE!</v>
       </c>
       <c r="P7" s="1">
-        <v>-1.37</v>
+        <v>-2.77</v>
       </c>
       <c r="Q7" s="1">
-        <v>1993.5</v>
+        <v>1990.5</v>
       </c>
       <c r="R7" t="s">
         <v>2</v>
       </c>
       <c r="S7" t="e">
-        <f t="shared" si="4"/>
+        <f>R7/$R$36</f>
         <v>#VALUE!</v>
       </c>
       <c r="T7" s="1">
-        <v>-1.06</v>
+        <v>-1.75</v>
       </c>
       <c r="U7" s="1">
-        <v>1993.5</v>
+        <v>1990.5</v>
       </c>
       <c r="V7" t="s">
         <v>2</v>
       </c>
       <c r="W7" t="e">
-        <f t="shared" si="5"/>
+        <f>V7/$V$36</f>
         <v>#VALUE!</v>
       </c>
       <c r="X7" s="1">
-        <v>-0.44999999999999901</v>
+        <v>-1.46999999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>1993.5</v>
+        <v>1990.5</v>
       </c>
       <c r="Z7" t="s">
         <v>2</v>
       </c>
       <c r="AA7" t="e">
-        <f t="shared" si="6"/>
+        <f>Z7/$Z$36</f>
         <v>#VALUE!</v>
       </c>
       <c r="AB7" s="1">
-        <v>0.1</v>
+        <v>-0.26</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" si="7"/>
-        <v>-1.0821496328977966</v>
+        <f>($A$2*D7+$E$2*H7+$I$2*L7+$M$2*P7+$Q$2*T7+$U$2*X7+$Y$2*AB7)/(SUM($A$2+$E$2+$I$2+$M$2+$Q$2+$U$2+$Y$2))</f>
+        <v>-1.7297501185007091</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="8"/>
-        <v>0.45957750173305423</v>
+        <f>(AG7-$AG$35)/$AG$34</f>
+        <v>-0.96678811962435673</v>
       </c>
       <c r="AI7" t="e">
-        <f t="shared" si="9"/>
+        <f>(B7*$A$2+$E$2*F7+$I$2*J7+$M$2*N7+$Q$2*R7+$U$2*V7+$Y$2*Z7)/SUM($A$2:$Y$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AJ7">
-        <v>96.43</v>
+        <v>96.19</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1994.5</v>
+        <v>1991.5</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C8:C35" si="0">B8/$B$36</f>
         <v>#VALUE!</v>
       </c>
       <c r="D8" s="1">
-        <v>-4.41</v>
+        <v>-2.1399999999999899</v>
       </c>
       <c r="E8" s="1">
-        <v>1994.5</v>
+        <v>1991.5</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
       </c>
       <c r="G8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G8:G35" si="1">F8/$F$36</f>
         <v>#VALUE!</v>
       </c>
       <c r="H8" s="1">
-        <v>-4</v>
+        <v>-2.02999999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>1994.5</v>
+        <v>1991.5</v>
       </c>
       <c r="J8" t="s">
         <v>2</v>
       </c>
       <c r="K8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K8:K35" si="2">J8/$J$36</f>
         <v>#VALUE!</v>
       </c>
       <c r="L8" s="1">
-        <v>-3.5199999999999898</v>
+        <v>-1.51999999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1994.5</v>
+        <v>1991.5</v>
       </c>
       <c r="N8" t="s">
         <v>2</v>
       </c>
       <c r="O8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O8:O35" si="3">N8/$N$36</f>
         <v>#VALUE!</v>
       </c>
       <c r="P8" s="1">
-        <v>-1.7</v>
+        <v>-1.02</v>
       </c>
       <c r="Q8" s="1">
-        <v>1994.5</v>
+        <v>1991.5</v>
       </c>
       <c r="R8" t="s">
         <v>2</v>
       </c>
       <c r="S8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="S8:S35" si="4">R8/$R$36</f>
         <v>#VALUE!</v>
       </c>
       <c r="T8" s="1">
-        <v>-1.78</v>
+        <v>-0.29999999999999899</v>
       </c>
       <c r="U8" s="1">
-        <v>1994.5</v>
+        <v>1991.5</v>
       </c>
       <c r="V8" t="s">
         <v>2</v>
       </c>
       <c r="W8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="W8:W35" si="5">V8/$V$36</f>
         <v>#VALUE!</v>
       </c>
       <c r="X8" s="1">
-        <v>-1.0899999999999901</v>
+        <v>0.08</v>
       </c>
       <c r="Y8" s="1">
-        <v>1994.5</v>
+        <v>1991.5</v>
       </c>
       <c r="Z8" t="s">
         <v>2</v>
       </c>
       <c r="AA8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AA8:AA35" si="6">Z8/$Z$36</f>
         <v>#VALUE!</v>
       </c>
       <c r="AB8" s="1">
-        <v>-0.05</v>
+        <v>0.46</v>
       </c>
       <c r="AG8" s="1">
-        <f t="shared" si="7"/>
-        <v>-1.4865926395558338</v>
+        <f t="shared" ref="AG8:AG32" si="7">($A$2*D8+$E$2*H8+$I$2*L8+$M$2*P8+$Q$2*T8+$U$2*X8+$Y$2*AB8)/(SUM($A$2+$E$2+$I$2+$M$2+$Q$2+$U$2+$Y$2))</f>
+        <v>-0.39987873927243334</v>
       </c>
       <c r="AH8" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.43122417819214715</v>
+        <f t="shared" ref="AH8:AH32" si="8">(AG8-$AG$35)/$AG$34</f>
+        <v>1.9623060647204702</v>
       </c>
       <c r="AI8" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <f t="shared" ref="AI8:AI37" si="9">(B8*$A$2+$E$2*F8+$I$2*J8+$M$2*N8+$Q$2*R8+$U$2*V8+$Y$2*Z8)/SUM($A$2:$Y$2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ8">
+        <v>93.48</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1995.5</v>
+        <v>1992.5</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1575,10 +1395,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="D9" s="1">
-        <v>-4.0399999999999903</v>
+        <v>-3.0499999999999901</v>
       </c>
       <c r="E9" s="1">
-        <v>1995.5</v>
+        <v>1992.5</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
@@ -1588,10 +1408,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="H9" s="1">
-        <v>-2.87</v>
+        <v>-3.04</v>
       </c>
       <c r="I9" s="1">
-        <v>1995.5</v>
+        <v>1992.5</v>
       </c>
       <c r="J9" t="s">
         <v>2</v>
@@ -1601,10 +1421,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L9" s="1">
-        <v>-1.95</v>
+        <v>-2.7099999999999902</v>
       </c>
       <c r="M9" s="1">
-        <v>1995.5</v>
+        <v>1992.5</v>
       </c>
       <c r="N9" t="s">
         <v>2</v>
@@ -1614,10 +1434,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="P9" s="1">
-        <v>-0.92999999999999905</v>
+        <v>-1.54</v>
       </c>
       <c r="Q9" s="1">
-        <v>1995.5</v>
+        <v>1992.5</v>
       </c>
       <c r="R9" t="s">
         <v>2</v>
@@ -1627,10 +1447,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="T9" s="1">
-        <v>-0.46999999999999897</v>
+        <v>-1.6</v>
       </c>
       <c r="U9" s="1">
-        <v>1995.5</v>
+        <v>1992.5</v>
       </c>
       <c r="V9" t="s">
         <v>2</v>
@@ -1640,10 +1460,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="X9" s="1">
-        <v>-3.00000000000002E-2</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>1995.5</v>
+        <v>1992.5</v>
       </c>
       <c r="Z9" t="s">
         <v>2</v>
@@ -1653,27 +1473,24 @@
         <v>#VALUE!</v>
       </c>
       <c r="AB9" s="1">
-        <v>0.4</v>
+        <v>0.22999999999999901</v>
       </c>
       <c r="AG9" s="1">
         <f t="shared" si="7"/>
-        <v>-0.60851477108862595</v>
+        <v>-0.97650433902603273</v>
       </c>
       <c r="AH9" s="1">
         <f t="shared" si="8"/>
-        <v>1.502776972672319</v>
+        <v>0.69226542984137607</v>
       </c>
       <c r="AI9" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
-      </c>
-      <c r="AJ9">
-        <v>95.36</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1996.5</v>
+        <v>1993.5</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1683,10 +1500,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="D10" s="1">
-        <v>-4.4000000000000004</v>
+        <v>-3.58</v>
       </c>
       <c r="E10" s="1">
-        <v>1996.5</v>
+        <v>1993.5</v>
       </c>
       <c r="F10" t="s">
         <v>2</v>
@@ -1696,10 +1513,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="H10" s="1">
-        <v>-3.87</v>
+        <v>-3.48999999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>1996.5</v>
+        <v>1993.5</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -1709,10 +1526,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L10" s="1">
-        <v>-3.3</v>
+        <v>-3.08</v>
       </c>
       <c r="M10" s="1">
-        <v>1996.5</v>
+        <v>1993.5</v>
       </c>
       <c r="N10" t="s">
         <v>2</v>
@@ -1722,10 +1539,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="P10" s="1">
-        <v>-2.8399999999999901</v>
+        <v>-1.37</v>
       </c>
       <c r="Q10" s="1">
-        <v>1996.5</v>
+        <v>1993.5</v>
       </c>
       <c r="R10" t="s">
         <v>2</v>
@@ -1735,10 +1552,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="T10" s="1">
-        <v>-1.6399999999999899</v>
+        <v>-1.06</v>
       </c>
       <c r="U10" s="1">
-        <v>1996.5</v>
+        <v>1993.5</v>
       </c>
       <c r="V10" t="s">
         <v>2</v>
@@ -1748,10 +1565,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="X10" s="1">
-        <v>-0.87999999999999901</v>
+        <v>-0.44999999999999901</v>
       </c>
       <c r="Y10" s="1">
-        <v>1996.5</v>
+        <v>1993.5</v>
       </c>
       <c r="Z10" t="s">
         <v>2</v>
@@ -1761,27 +1578,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="AB10" s="1">
-        <v>-0.02</v>
+        <v>0.1</v>
       </c>
       <c r="AG10" s="1">
         <f t="shared" si="7"/>
-        <v>-1.5738975833854976</v>
+        <v>-1.0821496328977966</v>
       </c>
       <c r="AH10" s="1">
         <f t="shared" si="8"/>
-        <v>-0.62351676169328007</v>
+        <v>0.45957750173305423</v>
       </c>
       <c r="AI10" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ10">
-        <v>99.9</v>
+        <v>96.43</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1997.5</v>
+        <v>1994.5</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1791,10 +1608,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="D11" s="1">
-        <v>-4.0799999999999903</v>
+        <v>-4.41</v>
       </c>
       <c r="E11" s="1">
-        <v>1997.5</v>
+        <v>1994.5</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -1804,10 +1621,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="H11" s="1">
-        <v>-4.0799999999999903</v>
+        <v>-4</v>
       </c>
       <c r="I11" s="1">
-        <v>1997.5</v>
+        <v>1994.5</v>
       </c>
       <c r="J11" t="s">
         <v>2</v>
@@ -1817,10 +1634,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L11" s="1">
-        <v>-3.21999999999999</v>
+        <v>-3.5199999999999898</v>
       </c>
       <c r="M11" s="1">
-        <v>1997.5</v>
+        <v>1994.5</v>
       </c>
       <c r="N11" t="s">
         <v>2</v>
@@ -1830,10 +1647,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="P11" s="1">
-        <v>-1.5899999999999901</v>
+        <v>-1.7</v>
       </c>
       <c r="Q11" s="1">
-        <v>1997.5</v>
+        <v>1994.5</v>
       </c>
       <c r="R11" t="s">
         <v>2</v>
@@ -1843,10 +1660,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="T11" s="1">
-        <v>-1.57</v>
+        <v>-1.78</v>
       </c>
       <c r="U11" s="1">
-        <v>1997.5</v>
+        <v>1994.5</v>
       </c>
       <c r="V11" t="s">
         <v>2</v>
@@ -1856,10 +1673,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="X11" s="1">
-        <v>-0.97</v>
+        <v>-1.0899999999999901</v>
       </c>
       <c r="Y11" s="1">
-        <v>1997.5</v>
+        <v>1994.5</v>
       </c>
       <c r="Z11" t="s">
         <v>2</v>
@@ -1869,27 +1686,24 @@
         <v>#VALUE!</v>
       </c>
       <c r="AB11" s="1">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" si="7"/>
-        <v>-1.3605664833988964</v>
+        <v>-1.4865926395558338</v>
       </c>
       <c r="AH11" s="1">
         <f t="shared" si="8"/>
-        <v>-0.15364659675052567</v>
+        <v>-0.43122417819214715</v>
       </c>
       <c r="AI11" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
-      </c>
-      <c r="AJ11">
-        <v>92.45</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1998.5</v>
+        <v>1995.5</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1899,10 +1713,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="D12" s="1">
-        <v>-4.5499999999999901</v>
+        <v>-4.0399999999999903</v>
       </c>
       <c r="E12" s="1">
-        <v>1998.5</v>
+        <v>1995.5</v>
       </c>
       <c r="F12" t="s">
         <v>2</v>
@@ -1912,10 +1726,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="H12" s="1">
-        <v>-3.7699999999999898</v>
+        <v>-2.87</v>
       </c>
       <c r="I12" s="1">
-        <v>1998.5</v>
+        <v>1995.5</v>
       </c>
       <c r="J12" t="s">
         <v>2</v>
@@ -1925,10 +1739,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L12" s="1">
-        <v>-3.35</v>
+        <v>-1.95</v>
       </c>
       <c r="M12" s="1">
-        <v>1998.5</v>
+        <v>1995.5</v>
       </c>
       <c r="N12" t="s">
         <v>2</v>
@@ -1938,10 +1752,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="P12" s="1">
-        <v>-1.46</v>
+        <v>-0.92999999999999905</v>
       </c>
       <c r="Q12" s="1">
-        <v>1998.5</v>
+        <v>1995.5</v>
       </c>
       <c r="R12" t="s">
         <v>2</v>
@@ -1951,10 +1765,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="T12" s="1">
-        <v>-1.3</v>
+        <v>-0.46999999999999897</v>
       </c>
       <c r="U12" s="1">
-        <v>1998.5</v>
+        <v>1995.5</v>
       </c>
       <c r="V12" t="s">
         <v>2</v>
@@ -1964,10 +1778,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="X12" s="1">
-        <v>-0.85999999999999899</v>
+        <v>-3.00000000000002E-2</v>
       </c>
       <c r="Y12" s="1">
-        <v>1998.5</v>
+        <v>1995.5</v>
       </c>
       <c r="Z12" t="s">
         <v>2</v>
@@ -1977,27 +1791,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="AB12" s="1">
-        <v>-0.16999999999999901</v>
+        <v>0.4</v>
       </c>
       <c r="AG12" s="1">
         <f t="shared" si="7"/>
-        <v>-1.3716801700810195</v>
+        <v>-0.60851477108862595</v>
       </c>
       <c r="AH12" s="1">
         <f t="shared" si="8"/>
-        <v>-0.17812493017110639</v>
+        <v>1.502776972672319</v>
       </c>
       <c r="AI12" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ12">
-        <v>90.43</v>
+        <v>95.36</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1999.5</v>
+        <v>1996.5</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -2007,10 +1821,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="D13" s="1">
-        <v>-4.17</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="E13" s="1">
-        <v>1999.5</v>
+        <v>1996.5</v>
       </c>
       <c r="F13" t="s">
         <v>2</v>
@@ -2020,10 +1834,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="H13" s="1">
-        <v>-3.31</v>
+        <v>-3.87</v>
       </c>
       <c r="I13" s="1">
-        <v>1999.5</v>
+        <v>1996.5</v>
       </c>
       <c r="J13" t="s">
         <v>2</v>
@@ -2033,10 +1847,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L13" s="1">
-        <v>-2.69999999999999</v>
+        <v>-3.3</v>
       </c>
       <c r="M13" s="1">
-        <v>1999.5</v>
+        <v>1996.5</v>
       </c>
       <c r="N13" t="s">
         <v>2</v>
@@ -2046,10 +1860,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="P13" s="1">
-        <v>-1.25999999999999</v>
+        <v>-2.8399999999999901</v>
       </c>
       <c r="Q13" s="1">
-        <v>1999.5</v>
+        <v>1996.5</v>
       </c>
       <c r="R13" t="s">
         <v>2</v>
@@ -2059,10 +1873,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="T13" s="1">
-        <v>-1.0499999999999901</v>
+        <v>-1.6399999999999899</v>
       </c>
       <c r="U13" s="1">
-        <v>1999.5</v>
+        <v>1996.5</v>
       </c>
       <c r="V13" t="s">
         <v>2</v>
@@ -2072,10 +1886,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="X13" s="1">
-        <v>-0.51</v>
+        <v>-0.87999999999999901</v>
       </c>
       <c r="Y13" s="1">
-        <v>1999.5</v>
+        <v>1996.5</v>
       </c>
       <c r="Z13" t="s">
         <v>2</v>
@@ -2085,27 +1899,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="AB13" s="1">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="AG13" s="1">
         <f t="shared" si="7"/>
-        <v>-1.0906526039156195</v>
+        <v>-1.5738975833854976</v>
       </c>
       <c r="AH13" s="1">
         <f t="shared" si="8"/>
-        <v>0.44084937257186391</v>
+        <v>-0.62351676169328007</v>
       </c>
       <c r="AI13" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ13">
-        <v>90.56</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2000.5</v>
+        <v>1997.5</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -2115,10 +1929,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="D14" s="1">
-        <v>-4.5799999999999903</v>
+        <v>-4.0799999999999903</v>
       </c>
       <c r="E14" s="1">
-        <v>2000.5</v>
+        <v>1997.5</v>
       </c>
       <c r="F14" t="s">
         <v>2</v>
@@ -2128,10 +1942,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="H14" s="1">
-        <v>-3.6599999999999899</v>
+        <v>-4.0799999999999903</v>
       </c>
       <c r="I14" s="1">
-        <v>2000.5</v>
+        <v>1997.5</v>
       </c>
       <c r="J14" t="s">
         <v>2</v>
@@ -2141,10 +1955,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L14" s="1">
-        <v>-3.16</v>
+        <v>-3.21999999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>2000.5</v>
+        <v>1997.5</v>
       </c>
       <c r="N14" t="s">
         <v>2</v>
@@ -2154,10 +1968,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="P14" s="1">
-        <v>-1.03</v>
+        <v>-1.5899999999999901</v>
       </c>
       <c r="Q14" s="1">
-        <v>2000.5</v>
+        <v>1997.5</v>
       </c>
       <c r="R14" t="s">
         <v>2</v>
@@ -2167,10 +1981,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="T14" s="1">
-        <v>-0.98</v>
+        <v>-1.57</v>
       </c>
       <c r="U14" s="1">
-        <v>2000.5</v>
+        <v>1997.5</v>
       </c>
       <c r="V14" t="s">
         <v>2</v>
@@ -2180,10 +1994,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="X14" s="1">
-        <v>-0.48999999999999899</v>
+        <v>-0.97</v>
       </c>
       <c r="Y14" s="1">
-        <v>2000.5</v>
+        <v>1997.5</v>
       </c>
       <c r="Z14" t="s">
         <v>2</v>
@@ -2193,27 +2007,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="AB14" s="1">
-        <v>0.16</v>
+        <v>-0.01</v>
       </c>
       <c r="AG14" s="1">
         <f t="shared" si="7"/>
-        <v>-1.0615106490638935</v>
+        <v>-1.3605664833988964</v>
       </c>
       <c r="AH14" s="1">
         <f t="shared" si="8"/>
-        <v>0.50503567796191162</v>
+        <v>-0.15364659675052567</v>
       </c>
       <c r="AI14" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ14">
-        <v>83.86</v>
+        <v>92.45</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2001.5</v>
+        <v>1998.5</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -2223,10 +2037,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="D15" s="1">
-        <v>-4.2300000000000004</v>
+        <v>-4.5499999999999901</v>
       </c>
       <c r="E15" s="1">
-        <v>2001.5</v>
+        <v>1998.5</v>
       </c>
       <c r="F15" t="s">
         <v>2</v>
@@ -2236,10 +2050,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="H15" s="1">
-        <v>-3.2899999999999898</v>
+        <v>-3.7699999999999898</v>
       </c>
       <c r="I15" s="1">
-        <v>2001.5</v>
+        <v>1998.5</v>
       </c>
       <c r="J15" t="s">
         <v>2</v>
@@ -2249,10 +2063,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L15" s="1">
-        <v>-2.94999999999999</v>
+        <v>-3.35</v>
       </c>
       <c r="M15" s="1">
-        <v>2001.5</v>
+        <v>1998.5</v>
       </c>
       <c r="N15" t="s">
         <v>2</v>
@@ -2262,10 +2076,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="P15" s="1">
-        <v>-1.2999999999999901</v>
+        <v>-1.46</v>
       </c>
       <c r="Q15" s="1">
-        <v>2001.5</v>
+        <v>1998.5</v>
       </c>
       <c r="R15" t="s">
         <v>2</v>
@@ -2275,10 +2089,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="T15" s="1">
-        <v>-1.55</v>
+        <v>-1.3</v>
       </c>
       <c r="U15" s="1">
-        <v>2001.5</v>
+        <v>1998.5</v>
       </c>
       <c r="V15" t="s">
         <v>2</v>
@@ -2288,10 +2102,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="X15" s="1">
-        <v>-0.93</v>
+        <v>-0.85999999999999899</v>
       </c>
       <c r="Y15" s="1">
-        <v>2001.5</v>
+        <v>1998.5</v>
       </c>
       <c r="Z15" t="s">
         <v>2</v>
@@ -2301,27 +2115,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="AB15" s="1">
-        <v>0.16999999999999901</v>
+        <v>-0.16999999999999901</v>
       </c>
       <c r="AG15" s="1">
         <f t="shared" si="7"/>
-        <v>-1.1801805210831235</v>
+        <v>-1.3716801700810195</v>
       </c>
       <c r="AH15" s="1">
         <f t="shared" si="8"/>
-        <v>0.24366060258418518</v>
+        <v>-0.17812493017110639</v>
       </c>
       <c r="AI15" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ15">
-        <v>91.3</v>
+        <v>90.43</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2002.5</v>
+        <v>1999.5</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -2331,10 +2145,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="D16" s="1">
-        <v>-5.0399999999999903</v>
+        <v>-4.17</v>
       </c>
       <c r="E16" s="1">
-        <v>2002.5</v>
+        <v>1999.5</v>
       </c>
       <c r="F16" t="s">
         <v>2</v>
@@ -2344,10 +2158,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="H16" s="1">
-        <v>-3.8879999999999999</v>
+        <v>-3.31</v>
       </c>
       <c r="I16" s="1">
-        <v>2002.5</v>
+        <v>1999.5</v>
       </c>
       <c r="J16" t="s">
         <v>2</v>
@@ -2357,10 +2171,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L16" s="1">
-        <v>-3.2850000000000001</v>
+        <v>-2.69999999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>2002.5</v>
+        <v>1999.5</v>
       </c>
       <c r="N16" t="s">
         <v>2</v>
@@ -2370,10 +2184,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="P16" s="1">
-        <v>-1.9710000000000001</v>
+        <v>-1.25999999999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>2002.5</v>
+        <v>1999.5</v>
       </c>
       <c r="R16" t="s">
         <v>2</v>
@@ -2383,10 +2197,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="T16" s="1">
-        <v>-1.7729999999999899</v>
+        <v>-1.0499999999999901</v>
       </c>
       <c r="U16" s="1">
-        <v>2002.5</v>
+        <v>1999.5</v>
       </c>
       <c r="V16" t="s">
         <v>2</v>
@@ -2396,10 +2210,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="X16" s="1">
-        <v>-1.07099999999999</v>
+        <v>-0.51</v>
       </c>
       <c r="Y16" s="1">
-        <v>2002.5</v>
+        <v>1999.5</v>
       </c>
       <c r="Z16" t="s">
         <v>2</v>
@@ -2409,27 +2223,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="AB16" s="1">
-        <v>-0.53099999999999903</v>
+        <v>-0.06</v>
       </c>
       <c r="AG16" s="1">
         <f t="shared" si="7"/>
-        <v>-1.6777801126806724</v>
+        <v>-1.0906526039156195</v>
       </c>
       <c r="AH16" s="1">
         <f t="shared" si="8"/>
-        <v>-0.85232213126977419</v>
+        <v>0.44084937257186391</v>
       </c>
       <c r="AI16" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ16">
-        <v>90.23</v>
+        <v>90.56</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2003.5</v>
+        <v>2000.5</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -2439,10 +2253,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="D17" s="1">
-        <v>-4.6799999999999899</v>
+        <v>-4.5799999999999903</v>
       </c>
       <c r="E17" s="1">
-        <v>2003.5</v>
+        <v>2000.5</v>
       </c>
       <c r="F17" t="s">
         <v>2</v>
@@ -2452,10 +2266,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="H17" s="1">
-        <v>-3.9869999999999899</v>
+        <v>-3.6599999999999899</v>
       </c>
       <c r="I17" s="1">
-        <v>2003.5</v>
+        <v>2000.5</v>
       </c>
       <c r="J17" t="s">
         <v>2</v>
@@ -2465,10 +2279,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L17" s="1">
-        <v>-3.5279999999999898</v>
+        <v>-3.16</v>
       </c>
       <c r="M17" s="1">
-        <v>2003.5</v>
+        <v>2000.5</v>
       </c>
       <c r="N17" t="s">
         <v>2</v>
@@ -2478,10 +2292,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="P17" s="1">
-        <v>-1.4670000000000001</v>
+        <v>-1.03</v>
       </c>
       <c r="Q17" s="1">
-        <v>2003.5</v>
+        <v>2000.5</v>
       </c>
       <c r="R17" t="s">
         <v>2</v>
@@ -2491,10 +2305,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="T17" s="1">
-        <v>-1.72799999999999</v>
+        <v>-0.98</v>
       </c>
       <c r="U17" s="1">
-        <v>2003.5</v>
+        <v>2000.5</v>
       </c>
       <c r="V17" t="s">
         <v>2</v>
@@ -2504,10 +2318,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="X17" s="1">
-        <v>-0.65700000000000003</v>
+        <v>-0.48999999999999899</v>
       </c>
       <c r="Y17" s="1">
-        <v>2003.5</v>
+        <v>2000.5</v>
       </c>
       <c r="Z17" t="s">
         <v>2</v>
@@ -2517,27 +2331,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="AB17" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0.16</v>
       </c>
       <c r="AG17" s="1">
         <f t="shared" si="7"/>
-        <v>-1.3583980043880228</v>
+        <v>-1.0615106490638935</v>
       </c>
       <c r="AH17" s="1">
         <f t="shared" si="8"/>
-        <v>-0.14887043616925988</v>
+        <v>0.50503567796191162</v>
       </c>
       <c r="AI17" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ17">
-        <v>90.19</v>
+        <v>83.86</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2004.5</v>
+        <v>2001.5</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -2547,10 +2361,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="D18" s="1">
-        <v>-4.2749999999999897</v>
+        <v>-4.2300000000000004</v>
       </c>
       <c r="E18" s="1">
-        <v>2004.5</v>
+        <v>2001.5</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
@@ -2560,10 +2374,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="H18" s="1">
-        <v>-3.6315</v>
+        <v>-3.2899999999999898</v>
       </c>
       <c r="I18" s="1">
-        <v>2004.5</v>
+        <v>2001.5</v>
       </c>
       <c r="J18" t="s">
         <v>2</v>
@@ -2573,10 +2387,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L18" s="1">
-        <v>-3.2444999999999999</v>
+        <v>-2.94999999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>2004.5</v>
+        <v>2001.5</v>
       </c>
       <c r="N18" t="s">
         <v>2</v>
@@ -2586,10 +2400,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="P18" s="1">
-        <v>-1.28249999999999</v>
+        <v>-1.2999999999999901</v>
       </c>
       <c r="Q18" s="1">
-        <v>2004.5</v>
+        <v>2001.5</v>
       </c>
       <c r="R18" t="s">
         <v>2</v>
@@ -2599,10 +2413,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="T18" s="1">
-        <v>-1.5660000000000001</v>
+        <v>-1.55</v>
       </c>
       <c r="U18" s="1">
-        <v>2004.5</v>
+        <v>2001.5</v>
       </c>
       <c r="V18" t="s">
         <v>2</v>
@@ -2612,10 +2426,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="X18" s="1">
-        <v>-0.16649999999999901</v>
+        <v>-0.93</v>
       </c>
       <c r="Y18" s="1">
-        <v>2004.5</v>
+        <v>2001.5</v>
       </c>
       <c r="Z18" t="s">
         <v>2</v>
@@ -2625,27 +2439,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="AB18" s="1">
-        <v>0.08</v>
+        <v>0.16999999999999901</v>
       </c>
       <c r="AG18" s="1">
         <f t="shared" si="7"/>
-        <v>-1.1323746322477912</v>
+        <v>-1.1801805210831235</v>
       </c>
       <c r="AH18" s="1">
         <f t="shared" si="8"/>
-        <v>0.34895495897996337</v>
+        <v>0.24366060258418518</v>
       </c>
       <c r="AI18" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ18">
-        <v>88.26</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2005.5</v>
+        <v>2002.5</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -2655,10 +2469,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="D19" s="1">
-        <v>-4.17</v>
+        <v>-5.0399999999999903</v>
       </c>
       <c r="E19" s="1">
-        <v>2005.5</v>
+        <v>2002.5</v>
       </c>
       <c r="F19" t="s">
         <v>2</v>
@@ -2668,10 +2482,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="H19" s="1">
-        <v>-3.7</v>
+        <v>-3.8879999999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>2005.5</v>
+        <v>2002.5</v>
       </c>
       <c r="J19" t="s">
         <v>2</v>
@@ -2681,10 +2495,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L19" s="1">
-        <v>-2.96999999999999</v>
+        <v>-3.2850000000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>2005.5</v>
+        <v>2002.5</v>
       </c>
       <c r="N19" t="s">
         <v>2</v>
@@ -2694,10 +2508,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="P19" s="1">
-        <v>-1.5</v>
+        <v>-1.9710000000000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>2005.5</v>
+        <v>2002.5</v>
       </c>
       <c r="R19" t="s">
         <v>2</v>
@@ -2707,10 +2521,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="T19" s="1">
-        <v>-1.1299999999999899</v>
+        <v>-1.7729999999999899</v>
       </c>
       <c r="U19" s="1">
-        <v>2005.5</v>
+        <v>2002.5</v>
       </c>
       <c r="V19" t="s">
         <v>2</v>
@@ -2720,10 +2534,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="X19" s="1">
-        <v>-0.23</v>
+        <v>-1.07099999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>2005.5</v>
+        <v>2002.5</v>
       </c>
       <c r="Z19" t="s">
         <v>2</v>
@@ -2733,79 +2547,79 @@
         <v>#VALUE!</v>
       </c>
       <c r="AB19" s="1">
-        <v>7.9999999999999905E-2</v>
+        <v>-0.53099999999999903</v>
       </c>
       <c r="AG19" s="1">
         <f t="shared" si="7"/>
-        <v>-1.093987303923821</v>
+        <v>-1.6777801126806724</v>
       </c>
       <c r="AH19" s="1">
         <f t="shared" si="8"/>
-        <v>0.43350456422940148</v>
+        <v>-0.85232213126977419</v>
       </c>
       <c r="AI19" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ19">
-        <v>90.16</v>
+        <v>90.23</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2006.5</v>
-      </c>
-      <c r="B20" s="1">
-        <v>109.55015983007</v>
-      </c>
-      <c r="C20">
+        <v>2003.5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="e">
         <f t="shared" si="0"/>
-        <v>1.156459001272365</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D20" s="1">
-        <v>-4.7</v>
+        <v>-4.6799999999999899</v>
       </c>
       <c r="E20" s="1">
-        <v>2006.5</v>
-      </c>
-      <c r="F20" s="1">
-        <v>97.167275464982396</v>
-      </c>
-      <c r="G20">
+        <v>2003.5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="e">
         <f t="shared" si="1"/>
-        <v>0.94510675877610351</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H20" s="1">
-        <v>-4.1899999999999897</v>
+        <v>-3.9869999999999899</v>
       </c>
       <c r="I20" s="1">
-        <v>2006.5</v>
-      </c>
-      <c r="J20" s="1">
-        <v>125.27249135847001</v>
-      </c>
-      <c r="K20">
+        <v>2003.5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" t="e">
         <f t="shared" si="2"/>
-        <v>1.151035143507853</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L20" s="1">
-        <v>-3.5499999999999901</v>
+        <v>-3.5279999999999898</v>
       </c>
       <c r="M20" s="1">
-        <v>2006.5</v>
-      </c>
-      <c r="N20" s="1">
-        <v>76.842860375556</v>
-      </c>
-      <c r="O20">
+        <v>2003.5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" t="e">
         <f t="shared" si="3"/>
-        <v>1.148881846198593</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P20" s="1">
-        <v>-2</v>
+        <v>-1.4670000000000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>2006.5</v>
+        <v>2003.5</v>
       </c>
       <c r="R20" t="s">
         <v>2</v>
@@ -2815,10 +2629,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="T20" s="1">
-        <v>-2.2999999999999998</v>
+        <v>-1.72799999999999</v>
       </c>
       <c r="U20" s="1">
-        <v>2006.5</v>
+        <v>2003.5</v>
       </c>
       <c r="V20" t="s">
         <v>2</v>
@@ -2828,10 +2642,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="X20" s="1">
-        <v>-1.1599999999999999</v>
+        <v>-0.65700000000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>2006.5</v>
+        <v>2003.5</v>
       </c>
       <c r="Z20" t="s">
         <v>2</v>
@@ -2841,83 +2655,79 @@
         <v>#VALUE!</v>
       </c>
       <c r="AB20" s="1">
-        <v>-0.67999999999999905</v>
-      </c>
-      <c r="AC20" t="e">
-        <f>AVERAGE(C20,G20,K20,O20,S20,W20,AA20)</f>
-        <v>#VALUE!</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AG20" s="1">
         <f t="shared" si="7"/>
-        <v>-1.8389847139082811</v>
+        <v>-1.3583980043880228</v>
       </c>
       <c r="AH20" s="1">
         <f t="shared" si="8"/>
-        <v>-1.2073816259852885</v>
+        <v>-0.14887043616925988</v>
       </c>
       <c r="AI20" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ20">
-        <v>87.06</v>
+        <v>90.19</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2007.5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>95.918281836428505</v>
-      </c>
-      <c r="C21">
+        <v>2004.5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="e">
         <f t="shared" si="0"/>
-        <v>1.012554984752015</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D21" s="1">
-        <v>-4.2899999999999903</v>
+        <v>-4.2749999999999897</v>
       </c>
       <c r="E21" s="1">
-        <v>2007.5</v>
-      </c>
-      <c r="F21" s="1">
-        <v>84.474013115586501</v>
-      </c>
-      <c r="G21">
+        <v>2004.5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="e">
         <f t="shared" si="1"/>
-        <v>0.82164453366045076</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H21" s="1">
-        <v>-4.09499999999999</v>
+        <v>-3.6315</v>
       </c>
       <c r="I21" s="1">
-        <v>2007.5</v>
-      </c>
-      <c r="J21" s="1">
-        <v>111.19250193655</v>
-      </c>
-      <c r="K21">
+        <v>2004.5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" t="e">
         <f t="shared" si="2"/>
-        <v>1.0216646610571345</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L21" s="1">
-        <v>-3.54</v>
+        <v>-3.2444999999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>2007.5</v>
-      </c>
-      <c r="N21" s="1">
-        <v>74.011785791474693</v>
-      </c>
-      <c r="O21">
+        <v>2004.5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" t="e">
         <f t="shared" si="3"/>
-        <v>1.106554293853601</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P21" s="1">
-        <v>-1.48</v>
+        <v>-1.28249999999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>2007.5</v>
+        <v>2004.5</v>
       </c>
       <c r="R21" t="s">
         <v>2</v>
@@ -2927,10 +2737,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="T21" s="1">
-        <v>-1.3599999999999901</v>
+        <v>-1.5660000000000001</v>
       </c>
       <c r="U21" s="1">
-        <v>2007.5</v>
+        <v>2004.5</v>
       </c>
       <c r="V21" t="s">
         <v>2</v>
@@ -2940,97 +2750,92 @@
         <v>#VALUE!</v>
       </c>
       <c r="X21" s="1">
-        <v>-0.439999999999999</v>
+        <v>-0.16649999999999901</v>
       </c>
       <c r="Y21" s="1">
-        <v>2007.5</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>102.35199567828499</v>
-      </c>
-      <c r="AA21">
+        <v>2004.5</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA21" t="e">
         <f t="shared" si="6"/>
-        <v>0.99693410618301881</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AB21" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="AC21" t="e">
-        <f t="shared" ref="AC21:AC32" si="10">AVERAGE(C21,G21,K21,O21,S21,W21,AA21)</f>
-        <v>#VALUE!</v>
+        <v>0.08</v>
       </c>
       <c r="AG21" s="1">
         <f t="shared" si="7"/>
-        <v>-1.2718313009878037</v>
+        <v>-1.1323746322477912</v>
       </c>
       <c r="AH21" s="1">
         <f t="shared" si="8"/>
-        <v>4.179614365790154E-2</v>
+        <v>0.34895495897996337</v>
       </c>
       <c r="AI21" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ21">
-        <v>85.47</v>
+        <v>88.26</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2008.5</v>
-      </c>
-      <c r="B22" s="1">
-        <v>101.998623234051</v>
-      </c>
-      <c r="C22">
+        <v>2005.5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="e">
         <f t="shared" si="0"/>
-        <v>1.0767417057115898</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D22" s="1">
-        <v>-3.96999999999999</v>
+        <v>-4.17</v>
       </c>
       <c r="E22" s="1">
-        <v>2008.5</v>
-      </c>
-      <c r="F22">
-        <f>F34</f>
-        <v>102.81089894099614</v>
-      </c>
-      <c r="G22">
+        <v>2005.5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H22" s="1">
-        <v>-3.375</v>
+        <v>-3.7</v>
       </c>
       <c r="I22" s="1">
-        <v>2008.5</v>
-      </c>
-      <c r="J22" s="1">
-        <v>103.314346179699</v>
-      </c>
-      <c r="K22">
+        <v>2005.5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" t="e">
         <f t="shared" si="2"/>
-        <v>0.94927818543244336</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L22" s="1">
-        <v>-2.8439999999999901</v>
+        <v>-2.96999999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>2008.5</v>
-      </c>
-      <c r="N22" s="1">
-        <v>66.332063962515207</v>
-      </c>
-      <c r="O22">
+        <v>2005.5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" t="e">
         <f t="shared" si="3"/>
-        <v>0.99173434896834711</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P22" s="1">
-        <v>-1.341</v>
+        <v>-1.5</v>
       </c>
       <c r="Q22" s="1">
-        <v>2008.5</v>
+        <v>2005.5</v>
       </c>
       <c r="R22" t="s">
         <v>2</v>
@@ -3040,10 +2845,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="T22" s="1">
-        <v>-1.4669999999999901</v>
+        <v>-1.1299999999999899</v>
       </c>
       <c r="U22" s="1">
-        <v>2008.5</v>
+        <v>2005.5</v>
       </c>
       <c r="V22" t="s">
         <v>2</v>
@@ -3053,1306 +2858,1580 @@
         <v>#VALUE!</v>
       </c>
       <c r="X22" s="1">
-        <v>-0.216000000000001</v>
+        <v>-0.23</v>
       </c>
       <c r="Y22" s="1">
-        <v>2008.5</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>96.947124004192304</v>
-      </c>
-      <c r="AA22">
+        <v>2005.5</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA22" t="e">
         <f t="shared" si="6"/>
-        <v>0.94428930062024174</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AB22" s="1">
-        <v>0.23399999999999899</v>
-      </c>
-      <c r="AC22" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE22">
-        <f>(D21+H21+L21+P21+T21+X21+AB21)/7</f>
-        <v>-2.16928571428571</v>
+        <v>7.9999999999999905E-2</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" si="7"/>
-        <v>-1.0096647179883056</v>
+        <v>-1.093987303923821</v>
       </c>
       <c r="AH22" s="1">
         <f t="shared" si="8"/>
-        <v>0.61922838679633485</v>
+        <v>0.43350456422940148</v>
       </c>
       <c r="AI22" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ22">
-        <v>90.86</v>
+        <v>90.16</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2009.5</v>
+        <v>2006.5</v>
       </c>
       <c r="B23" s="1">
-        <v>104.43005384526801</v>
+        <v>109.55015983007</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>1.1024089418039213</v>
+        <v>1.156459001272365</v>
       </c>
       <c r="D23" s="1">
-        <v>-5.9</v>
+        <v>-4.7</v>
       </c>
       <c r="E23" s="1">
-        <v>2009.5</v>
+        <v>2006.5</v>
       </c>
       <c r="F23" s="1">
-        <v>113.12006096454</v>
+        <v>97.167275464982396</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>1.1002730462405581</v>
+        <v>0.94510675877610351</v>
       </c>
       <c r="H23" s="1">
-        <v>-5.12</v>
+        <v>-4.1899999999999897</v>
       </c>
       <c r="I23" s="1">
-        <v>2009.5</v>
+        <v>2006.5</v>
       </c>
       <c r="J23" s="1">
-        <v>111.126072387458</v>
+        <v>125.27249135847001</v>
       </c>
       <c r="K23">
         <f t="shared" si="2"/>
-        <v>1.0210542896600057</v>
+        <v>1.151035143507853</v>
       </c>
       <c r="L23" s="1">
-        <v>-4.3849999999999998</v>
+        <v>-3.5499999999999901</v>
       </c>
       <c r="M23" s="1">
-        <v>2009.5</v>
+        <v>2006.5</v>
       </c>
       <c r="N23" s="1">
-        <v>70.879243587018607</v>
+        <v>76.842860375556</v>
       </c>
       <c r="O23">
         <f t="shared" si="3"/>
-        <v>1.0597194824793053</v>
+        <v>1.148881846198593</v>
       </c>
       <c r="P23" s="1">
-        <v>-2.9519999999999902</v>
+        <v>-2</v>
       </c>
       <c r="Q23" s="1">
-        <v>2009.5</v>
-      </c>
-      <c r="R23" s="1">
-        <v>97.859994562655999</v>
-      </c>
-      <c r="S23">
+        <v>2006.5</v>
+      </c>
+      <c r="R23" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" t="e">
         <f t="shared" si="4"/>
-        <v>0.97155287552540437</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T23" s="1">
-        <v>-2.9849999999999999</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="U23" s="1">
-        <v>2009.5</v>
-      </c>
-      <c r="V23" s="1">
-        <v>77.088138425895593</v>
-      </c>
-      <c r="W23">
+        <v>2006.5</v>
+      </c>
+      <c r="V23" t="s">
+        <v>2</v>
+      </c>
+      <c r="W23" t="e">
         <f t="shared" si="5"/>
-        <v>1.0007140158603611</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X23" s="1">
-        <v>-1.9299999999999899</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>2009.5</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>100.903278204331</v>
-      </c>
-      <c r="AA23">
+        <v>2006.5</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA23" t="e">
         <f t="shared" si="6"/>
-        <v>0.9828232346710678</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AB23" s="1">
-        <v>-1.01</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="10"/>
-        <v>1.0340779837486604</v>
-      </c>
-      <c r="AD23" s="1">
-        <f>(D23+H23+L23+P23+T23+X23+AB23)/7</f>
-        <v>-3.4688571428571398</v>
-      </c>
-      <c r="AE23">
-        <f>(D22+H22+L22+P22+T22+X22+AB22)/7</f>
-        <v>-1.8541428571428533</v>
-      </c>
-      <c r="AF23">
-        <v>-2.16928571428571</v>
+        <v>-0.67999999999999905</v>
+      </c>
+      <c r="AC23" t="e">
+        <f>AVERAGE(C23,G23,K23,O23,S23,W23,AA23)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AG23" s="1">
         <f t="shared" si="7"/>
-        <v>-2.5112538375230216</v>
+        <v>-1.8389847139082811</v>
       </c>
       <c r="AH23" s="1">
         <f t="shared" si="8"/>
-        <v>-2.6880808958930453</v>
-      </c>
-      <c r="AI23">
+        <v>-1.2073816259852885</v>
+      </c>
+      <c r="AI23" t="e">
         <f t="shared" si="9"/>
-        <v>93.590110939823461</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AJ23">
-        <v>90.5</v>
+        <v>87.06</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2010.5</v>
+        <v>2007.5</v>
       </c>
       <c r="B24" s="1">
-        <v>92.467414538793406</v>
+        <v>95.918281836428505</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.97612613284767358</v>
+        <v>1.012554984752015</v>
       </c>
       <c r="D24" s="1">
-        <v>-3.8089999999999899</v>
+        <v>-4.2899999999999903</v>
       </c>
       <c r="E24" s="1">
-        <v>2010.5</v>
+        <v>2007.5</v>
       </c>
       <c r="F24" s="1">
-        <v>107.251130608954</v>
+        <v>84.474013115586501</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>1.043188336194844</v>
+        <v>0.82164453366045076</v>
       </c>
       <c r="H24" s="1">
-        <v>-4.8599999999999897</v>
+        <v>-4.09499999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>2010.5</v>
+        <v>2007.5</v>
       </c>
       <c r="J24" s="1">
-        <v>111.416295823334</v>
+        <v>111.19250193655</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>1.0237209355496204</v>
+        <v>1.0216646610571345</v>
       </c>
       <c r="L24" s="1">
-        <v>-3.2108999999999899</v>
+        <v>-3.54</v>
       </c>
       <c r="M24" s="1">
-        <v>2010.5</v>
+        <v>2007.5</v>
       </c>
       <c r="N24" s="1">
-        <v>74.786315956259301</v>
+        <v>74.011785791474693</v>
       </c>
       <c r="O24">
         <f t="shared" si="3"/>
-        <v>1.1181343370912589</v>
+        <v>1.106554293853601</v>
       </c>
       <c r="P24" s="1">
-        <v>-2.0834999999999999</v>
+        <v>-1.48</v>
       </c>
       <c r="Q24" s="1">
-        <v>2010.5</v>
-      </c>
-      <c r="R24" s="1">
-        <v>100.969554347475</v>
-      </c>
-      <c r="S24">
+        <v>2007.5</v>
+      </c>
+      <c r="R24" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" t="e">
         <f t="shared" si="4"/>
-        <v>1.0024245485114964</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T24" s="1">
-        <v>-1.59119999999999</v>
+        <v>-1.3599999999999901</v>
       </c>
       <c r="U24" s="1">
-        <v>2010.5</v>
-      </c>
-      <c r="V24" s="1">
-        <v>79.393447809413004</v>
-      </c>
-      <c r="W24">
+        <v>2007.5</v>
+      </c>
+      <c r="V24" t="s">
+        <v>2</v>
+      </c>
+      <c r="W24" t="e">
         <f t="shared" si="5"/>
-        <v>1.0306402205669121</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X24" s="1">
-        <v>-1.88499999999999</v>
+        <v>-0.439999999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>2010.5</v>
+        <v>2007.5</v>
       </c>
       <c r="Z24" s="1">
-        <v>103.88002279541</v>
+        <v>102.35199567828499</v>
       </c>
       <c r="AA24">
         <f t="shared" si="6"/>
-        <v>1.011817473509071</v>
+        <v>0.99693410618301881</v>
       </c>
       <c r="AB24" s="1">
-        <v>-0.83511000000000002</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="10"/>
-        <v>1.0294359977529823</v>
-      </c>
-      <c r="AD24" s="1">
-        <f t="shared" ref="AD24:AD27" si="11">(D24+H24+L24+P24+T24+X24+AB24)/7</f>
-        <v>-2.6106728571428497</v>
-      </c>
-      <c r="AE24">
-        <f t="shared" ref="AE24:AE32" si="12">(D23+H23+L23+P23+T23+X23+AB23)/7</f>
-        <v>-3.4688571428571398</v>
-      </c>
-      <c r="AF24">
-        <v>-1.8541428571428533</v>
+        <v>0.02</v>
+      </c>
+      <c r="AC24" t="e">
+        <f t="shared" ref="AC24:AC35" si="10">AVERAGE(C24,G24,K24,O24,S24,W24,AA24)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AG24" s="1">
         <f t="shared" si="7"/>
-        <v>-1.903583020298117</v>
+        <v>-1.2718313009878037</v>
       </c>
       <c r="AH24" s="1">
         <f t="shared" si="8"/>
-        <v>-1.3496619446088796</v>
-      </c>
-      <c r="AI24">
+        <v>4.179614365790154E-2</v>
+      </c>
+      <c r="AI24" t="e">
         <f t="shared" si="9"/>
-        <v>95.320202330647447</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AJ24">
-        <v>86.69</v>
+        <v>85.47</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>2011.5</v>
+        <v>2008.5</v>
       </c>
       <c r="B25" s="1">
-        <v>95.428904943047698</v>
+        <v>101.998623234051</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>1.0073889100128925</v>
+        <v>1.0767417057115898</v>
       </c>
       <c r="D25" s="1">
-        <v>-4.2044761900000003</v>
+        <v>-3.96999999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>2011.5</v>
-      </c>
-      <c r="F25" s="1">
-        <v>105.496843523774</v>
+        <v>2008.5</v>
+      </c>
+      <c r="F25">
+        <f>F37</f>
+        <v>102.81089894099614</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>1.0261250957869685</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>-4.0589999999999904</v>
+        <v>-3.375</v>
       </c>
       <c r="I25" s="1">
-        <v>2011.5</v>
+        <v>2008.5</v>
       </c>
       <c r="J25" s="1">
-        <v>109.880473099002</v>
+        <v>103.314346179699</v>
       </c>
       <c r="K25">
         <f t="shared" si="2"/>
-        <v>1.0096094102599578</v>
+        <v>0.94927818543244336</v>
       </c>
       <c r="L25" s="1">
-        <v>-3.6179999999999999</v>
+        <v>-2.8439999999999901</v>
       </c>
       <c r="M25" s="1">
-        <v>2011.5</v>
+        <v>2008.5</v>
       </c>
       <c r="N25" s="1">
-        <v>63.586620531387901</v>
+        <v>66.332063962515207</v>
       </c>
       <c r="O25">
         <f t="shared" si="3"/>
-        <v>0.95068707271689334</v>
+        <v>0.99173434896834711</v>
       </c>
       <c r="P25" s="1">
-        <v>-2.3220000000000001</v>
+        <v>-1.341</v>
       </c>
       <c r="Q25" s="1">
-        <v>2011.5</v>
-      </c>
-      <c r="R25" s="1">
-        <v>95.889573903348307</v>
-      </c>
-      <c r="S25">
+        <v>2008.5</v>
+      </c>
+      <c r="R25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" t="e">
         <f t="shared" si="4"/>
-        <v>0.95199056238508073</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T25" s="1">
-        <v>-2.5649999999999999</v>
+        <v>-1.4669999999999901</v>
       </c>
       <c r="U25" s="1">
-        <v>2011.5</v>
-      </c>
-      <c r="V25" s="1">
-        <v>75.349477980998898</v>
-      </c>
-      <c r="W25">
+        <v>2008.5</v>
+      </c>
+      <c r="V25" t="s">
+        <v>2</v>
+      </c>
+      <c r="W25" t="e">
         <f t="shared" si="5"/>
-        <v>0.97814372279636796</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X25" s="1">
-        <v>-1.94399999999999</v>
+        <v>-0.216000000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>2011.5</v>
+        <v>2008.5</v>
       </c>
       <c r="Z25" s="1">
-        <v>100.316220602068</v>
+        <v>96.947124004192304</v>
       </c>
       <c r="AA25">
         <f t="shared" si="6"/>
-        <v>0.97710514640017954</v>
+        <v>0.94428930062024174</v>
       </c>
       <c r="AB25" s="1">
-        <v>-1.0349999999999899</v>
-      </c>
-      <c r="AC25">
+        <v>0.23399999999999899</v>
+      </c>
+      <c r="AC25" t="e">
         <f t="shared" si="10"/>
-        <v>0.98586427433690582</v>
-      </c>
-      <c r="AD25" s="1">
-        <f t="shared" si="11"/>
-        <v>-2.8210680271428532</v>
-      </c>
-      <c r="AE25">
-        <f t="shared" si="12"/>
-        <v>-2.6106728571428497</v>
-      </c>
-      <c r="AF25">
-        <v>-3.4688571428571398</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AG25" s="1">
         <f t="shared" si="7"/>
-        <v>-2.1626793572959184</v>
+        <v>-1.0096647179883056</v>
       </c>
       <c r="AH25" s="1">
         <f t="shared" si="8"/>
-        <v>-1.9203318497885122</v>
-      </c>
-      <c r="AI25">
+        <v>0.61922838679633485</v>
+      </c>
+      <c r="AI25" t="e">
         <f t="shared" si="9"/>
-        <v>90.883352102901085</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AJ25">
-        <v>89.55</v>
+        <v>90.86</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>2012.5</v>
-      </c>
-      <c r="B26">
-        <f>B33</f>
-        <v>94.728961173323214</v>
+        <v>2009.5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>104.43005384526801</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1024089418039213</v>
       </c>
       <c r="D26" s="1">
-        <v>-3.6539999999999901</v>
+        <v>-5.9</v>
       </c>
       <c r="E26" s="1">
-        <v>2012.5</v>
+        <v>2009.5</v>
       </c>
       <c r="F26" s="1">
-        <v>90.869321972452099</v>
+        <v>113.12006096454</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>0.88384911432982027</v>
+        <v>1.1002730462405581</v>
       </c>
       <c r="H26" s="1">
-        <v>-3.1724999999999901</v>
+        <v>-5.12</v>
       </c>
       <c r="I26" s="1">
-        <v>2012.5</v>
+        <v>2009.5</v>
       </c>
       <c r="J26" s="1">
-        <v>103.799133788711</v>
+        <v>111.126072387458</v>
       </c>
       <c r="K26">
         <f t="shared" si="2"/>
-        <v>0.95373253585733597</v>
+        <v>1.0210542896600057</v>
       </c>
       <c r="L26" s="1">
-        <v>-2.5874999999999901</v>
+        <v>-4.3849999999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>2012.5</v>
+        <v>2009.5</v>
       </c>
       <c r="N26" s="1">
-        <v>73.393205463067403</v>
+        <v>70.879243587018607</v>
       </c>
       <c r="O26">
         <f t="shared" si="3"/>
-        <v>1.0973058652260175</v>
+        <v>1.0597194824793053</v>
       </c>
       <c r="P26" s="1">
-        <v>-1.3634999999999899</v>
+        <v>-2.9519999999999902</v>
       </c>
       <c r="Q26" s="1">
-        <v>2012.5</v>
+        <v>2009.5</v>
       </c>
       <c r="R26" s="1">
-        <v>98.124414291639496</v>
+        <v>97.859994562655999</v>
       </c>
       <c r="S26">
         <f t="shared" si="4"/>
-        <v>0.97417803148609761</v>
+        <v>0.97155287552540437</v>
       </c>
       <c r="T26" s="1">
-        <v>-1.10249999999999</v>
+        <v>-2.9849999999999999</v>
       </c>
       <c r="U26" s="1">
-        <v>2012.5</v>
+        <v>2009.5</v>
       </c>
       <c r="V26" s="1">
-        <v>79.271206566995602</v>
+        <v>77.088138425895593</v>
       </c>
       <c r="W26">
         <f t="shared" si="5"/>
-        <v>1.0290533548428049</v>
+        <v>1.0007140158603611</v>
       </c>
       <c r="X26" s="1">
-        <v>-0.92249999999999899</v>
+        <v>-1.9299999999999899</v>
       </c>
       <c r="Y26" s="1">
-        <v>2012.5</v>
+        <v>2009.5</v>
       </c>
       <c r="Z26" s="1">
-        <v>108.560181328664</v>
+        <v>100.903278204331</v>
       </c>
       <c r="AA26">
         <f t="shared" si="6"/>
-        <v>1.0574033913333809</v>
+        <v>0.9828232346710678</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="1"/>
-      <c r="AE26">
-        <f t="shared" si="12"/>
-        <v>-2.8210680271428532</v>
-      </c>
-      <c r="AF26">
-        <v>-2.6106728571428497</v>
+        <v>-1.01</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="10"/>
+        <v>1.0340779837486604</v>
+      </c>
+      <c r="AD26" s="1">
+        <f>(D26+H26+L26+P26+T26+X26+AB26)/7</f>
+        <v>-3.4688571428571398</v>
       </c>
       <c r="AG26" s="1">
         <f t="shared" si="7"/>
-        <v>-1.1236050996305926</v>
+        <v>-2.5112538375230216</v>
       </c>
       <c r="AH26" s="1">
         <f t="shared" si="8"/>
-        <v>0.36827020058127125</v>
+        <v>-2.6880808958930453</v>
       </c>
       <c r="AI26">
         <f t="shared" si="9"/>
-        <v>94.763467045522006</v>
+        <v>93.590110939823461</v>
+      </c>
+      <c r="AJ26">
+        <v>90.5</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>2013.5</v>
+        <v>2010.5</v>
       </c>
       <c r="B27" s="1">
-        <v>82.576684410311998</v>
+        <v>92.467414538793406</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0.87171529580297524</v>
+        <v>0.97612613284767358</v>
       </c>
       <c r="D27" s="1">
-        <v>-4.4370000099999896</v>
+        <v>-3.8089999999999899</v>
       </c>
       <c r="E27" s="1">
-        <v>2013.5</v>
+        <v>2010.5</v>
       </c>
       <c r="F27" s="1">
-        <v>93.944522695817497</v>
+        <v>107.251130608954</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>0.91376034703998532</v>
+        <v>1.043188336194844</v>
       </c>
       <c r="H27" s="1">
-        <v>-4.0679999999999898</v>
+        <v>-4.8599999999999897</v>
       </c>
       <c r="I27" s="1">
-        <v>2013.5</v>
+        <v>2010.5</v>
       </c>
       <c r="J27" s="1">
-        <v>101.46429996346301</v>
+        <v>111.416295823334</v>
       </c>
       <c r="K27">
         <f t="shared" si="2"/>
-        <v>0.93227949570488111</v>
+        <v>1.0237209355496204</v>
       </c>
       <c r="L27" s="1">
-        <v>-3.4470000000000001</v>
+        <v>-3.2108999999999899</v>
       </c>
       <c r="M27" s="1">
-        <v>2013.5</v>
+        <v>2010.5</v>
       </c>
       <c r="N27" s="1">
-        <v>62.332095183351598</v>
+        <v>74.786315956259301</v>
       </c>
       <c r="O27">
         <f t="shared" si="3"/>
-        <v>0.93193059500496578</v>
+        <v>1.1181343370912589</v>
       </c>
       <c r="P27" s="1">
-        <v>-1.881</v>
+        <v>-2.0834999999999999</v>
       </c>
       <c r="Q27" s="1">
-        <v>2013.5</v>
+        <v>2010.5</v>
       </c>
       <c r="R27" s="1">
-        <v>95.781162409578002</v>
+        <v>100.969554347475</v>
       </c>
       <c r="S27">
         <f t="shared" si="4"/>
-        <v>0.95091425434947063</v>
+        <v>1.0024245485114964</v>
       </c>
       <c r="T27" s="1">
-        <v>-1.6919999999999999</v>
+        <v>-1.59119999999999</v>
       </c>
       <c r="U27" s="1">
-        <v>2013.5</v>
+        <v>2010.5</v>
       </c>
       <c r="V27" s="1">
-        <v>75.907746949238401</v>
+        <v>79.393447809413004</v>
       </c>
       <c r="W27">
         <f t="shared" si="5"/>
-        <v>0.9853908504679515</v>
+        <v>1.0306402205669121</v>
       </c>
       <c r="X27" s="1">
-        <v>-1.0169999999999999</v>
+        <v>-1.88499999999999</v>
       </c>
       <c r="Y27" s="1">
-        <v>2013.5</v>
+        <v>2010.5</v>
       </c>
       <c r="Z27" s="1">
-        <v>98.732189646988999</v>
+        <v>103.88002279541</v>
       </c>
       <c r="AA27">
         <f t="shared" si="6"/>
-        <v>0.9616762876475704</v>
+        <v>1.011817473509071</v>
       </c>
       <c r="AB27" s="1">
-        <v>-0.35</v>
+        <v>-0.83511000000000002</v>
       </c>
       <c r="AC27">
         <f t="shared" si="10"/>
-        <v>0.93538101800254292</v>
+        <v>1.0294359977529823</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" si="11"/>
-        <v>-2.4131428585714256</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" si="12"/>
-        <v>-1.8289285714285641</v>
-      </c>
-      <c r="AF27">
-        <v>-2.8210680271428532</v>
+        <f t="shared" ref="AD27:AD30" si="11">(D27+H27+L27+P27+T27+X27+AB27)/7</f>
+        <v>-2.6106728571428497</v>
       </c>
       <c r="AG27" s="1">
         <f t="shared" si="7"/>
-        <v>-1.5900929409422651</v>
+        <v>-1.903583020298117</v>
       </c>
       <c r="AH27" s="1">
         <f t="shared" si="8"/>
-        <v>-0.65918767571839487</v>
+        <v>-1.3496619446088796</v>
       </c>
       <c r="AI27">
         <f t="shared" si="9"/>
-        <v>88.099179779681265</v>
+        <v>95.320202330647447</v>
+      </c>
+      <c r="AJ27">
+        <v>86.69</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>2014.5</v>
+        <v>2011.5</v>
       </c>
       <c r="B28" s="1">
-        <v>86.312512306530706</v>
+        <v>95.428904943047698</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0.91115231537910413</v>
+        <v>1.0073889100128925</v>
       </c>
       <c r="D28" s="1">
-        <v>-3.06</v>
+        <v>-4.2044761900000003</v>
       </c>
       <c r="E28" s="1">
-        <v>2014.5</v>
+        <v>2011.5</v>
       </c>
       <c r="F28" s="1">
-        <v>105.86592233412399</v>
+        <v>105.496843523774</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>1.0297149759859716</v>
+        <v>1.0261250957869685</v>
       </c>
       <c r="H28" s="1">
-        <v>-2.7589999999999999</v>
+        <v>-4.0589999999999904</v>
       </c>
       <c r="I28" s="1">
-        <v>2014.5</v>
+        <v>2011.5</v>
       </c>
       <c r="J28" s="1">
-        <v>114.73712648209499</v>
+        <v>109.880473099002</v>
       </c>
       <c r="K28">
         <f t="shared" si="2"/>
-        <v>1.0542335624832893</v>
+        <v>1.0096094102599578</v>
       </c>
       <c r="L28" s="1">
-        <v>-2.1599999999999899</v>
+        <v>-3.6179999999999999</v>
       </c>
       <c r="M28" s="1">
-        <v>2014.5</v>
+        <v>2011.5</v>
       </c>
       <c r="N28" s="1">
-        <v>68.924147719942795</v>
+        <v>63.586620531387901</v>
       </c>
       <c r="O28">
         <f t="shared" si="3"/>
-        <v>1.0304887362748627</v>
+        <v>0.95068707271689334</v>
       </c>
       <c r="P28" s="1">
-        <v>-1.0799999999999901</v>
+        <v>-2.3220000000000001</v>
       </c>
       <c r="Q28" s="1">
-        <v>2014.5</v>
+        <v>2011.5</v>
       </c>
       <c r="R28" s="1">
-        <v>103.413542759943</v>
+        <v>95.889573903348307</v>
       </c>
       <c r="S28">
         <f t="shared" si="4"/>
-        <v>1.0266884367376885</v>
+        <v>0.95199056238508073</v>
       </c>
       <c r="T28" s="1">
-        <v>-0.630000000000002</v>
+        <v>-2.5649999999999999</v>
       </c>
       <c r="U28" s="1">
-        <v>2014.5</v>
+        <v>2011.5</v>
       </c>
       <c r="V28" s="1">
-        <v>79.684041778845597</v>
+        <v>75.349477980998898</v>
       </c>
       <c r="W28">
         <f t="shared" si="5"/>
-        <v>1.0344125448709323</v>
+        <v>0.97814372279636796</v>
       </c>
       <c r="X28" s="1">
-        <v>-0.17099999999999899</v>
+        <v>-1.94399999999999</v>
       </c>
       <c r="Y28" s="1">
-        <v>2014.5</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA28" t="e">
+        <v>2011.5</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>100.316220602068</v>
+      </c>
+      <c r="AA28">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>0.97710514640017954</v>
       </c>
       <c r="AB28" s="1">
-        <v>8.99999999999989E-3</v>
-      </c>
-      <c r="AC28" t="e">
+        <v>-1.0349999999999899</v>
+      </c>
+      <c r="AC28">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v>0.98586427433690582</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" ref="AD28:AD32" si="13">D28+H28+L28+P28+T28+X28+AB28</f>
-        <v>-9.8509999999999813</v>
-      </c>
-      <c r="AE28">
-        <f>(D27+H27+L27+P27+T27+X27+AB27)/7</f>
-        <v>-2.4131428585714256</v>
-      </c>
-      <c r="AF28">
-        <v>-1.8289285714285641</v>
+        <f t="shared" si="11"/>
+        <v>-2.8210680271428532</v>
       </c>
       <c r="AG28" s="1">
         <f t="shared" si="7"/>
-        <v>-0.79531793990763633</v>
+        <v>-2.1626793572959184</v>
       </c>
       <c r="AH28" s="1">
         <f t="shared" si="8"/>
-        <v>1.0913356228160138</v>
-      </c>
-      <c r="AI28" t="e">
+        <v>-1.9203318497885122</v>
+      </c>
+      <c r="AI28">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>90.883352102901085</v>
+      </c>
+      <c r="AJ28">
+        <v>89.55</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>2015.5</v>
-      </c>
-      <c r="B29" s="1">
-        <v>83.878015615407705</v>
+        <v>2012.5</v>
+      </c>
+      <c r="B29">
+        <f>B36</f>
+        <v>94.728961173323214</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0.88545271241746437</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>-4.3899999999999997</v>
+        <v>-3.6539999999999901</v>
       </c>
       <c r="E29" s="1">
-        <v>2015.5</v>
-      </c>
-      <c r="F29">
-        <f>F33</f>
-        <v>102.81089894099614</v>
+        <v>2012.5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>90.869321972452099</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.88384911432982027</v>
       </c>
       <c r="H29" s="1">
-        <v>-4.17</v>
+        <v>-3.1724999999999901</v>
       </c>
       <c r="I29" s="1">
-        <v>2015.5</v>
+        <v>2012.5</v>
       </c>
       <c r="J29" s="1">
-        <v>97.636829267802199</v>
+        <v>103.799133788711</v>
       </c>
       <c r="K29">
         <f t="shared" si="2"/>
-        <v>0.89711173274529044</v>
+        <v>0.95373253585733597</v>
       </c>
       <c r="L29" s="1">
-        <v>-3.99</v>
+        <v>-2.5874999999999901</v>
       </c>
       <c r="M29" s="1">
-        <v>2015.5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>2</v>
-      </c>
-      <c r="O29" t="e">
+        <v>2012.5</v>
+      </c>
+      <c r="N29" s="1">
+        <v>73.393205463067403</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>1.0973058652260175</v>
       </c>
       <c r="P29" s="1">
-        <v>-1.99</v>
+        <v>-1.3634999999999899</v>
       </c>
       <c r="Q29" s="1">
-        <v>2015.5</v>
+        <v>2012.5</v>
       </c>
       <c r="R29" s="1">
-        <v>97.198978809261504</v>
+        <v>98.124414291639496</v>
       </c>
       <c r="S29">
         <f t="shared" si="4"/>
-        <v>0.96499031889694653</v>
+        <v>0.97417803148609761</v>
       </c>
       <c r="T29" s="1">
-        <v>-2.75</v>
+        <v>-1.10249999999999</v>
       </c>
       <c r="U29" s="1">
-        <v>2015.5</v>
+        <v>2012.5</v>
       </c>
       <c r="V29" s="1">
-        <v>71.295205741131795</v>
+        <v>79.271206566995602</v>
       </c>
       <c r="W29">
         <f t="shared" si="5"/>
-        <v>0.92551348502705511</v>
+        <v>1.0290533548428049</v>
       </c>
       <c r="X29" s="1">
-        <v>-1.78999999999999</v>
+        <v>-0.92249999999999899</v>
       </c>
       <c r="Y29" s="1">
-        <v>2015.5</v>
+        <v>2012.5</v>
       </c>
       <c r="Z29" s="1">
-        <v>102.55510844014501</v>
+        <v>108.560181328664</v>
       </c>
       <c r="AA29">
         <f t="shared" si="6"/>
-        <v>0.9989124754210329</v>
+        <v>1.0574033913333809</v>
       </c>
       <c r="AB29" s="1">
-        <v>-0.97</v>
-      </c>
-      <c r="AC29" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD29" s="1">
-        <f t="shared" si="13"/>
-        <v>-20.049999999999986</v>
-      </c>
-      <c r="AE29">
-        <f t="shared" si="12"/>
-        <v>-1.4072857142857116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1"/>
       <c r="AG29" s="1">
         <f t="shared" si="7"/>
-        <v>-2.1424028744172445</v>
+        <v>-1.1236050996305926</v>
       </c>
       <c r="AH29" s="1">
         <f t="shared" si="8"/>
-        <v>-1.8756720962164366</v>
-      </c>
-      <c r="AI29" t="e">
+        <v>0.36827020058127125</v>
+      </c>
+      <c r="AI29">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>94.763467045522006</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2016.5</v>
-      </c>
-      <c r="B30">
-        <f>B33</f>
-        <v>94.728961173323214</v>
+        <v>2013.5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>82.576684410311998</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2</v>
+        <v>0.87171529580297524</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-4.4370000099999896</v>
       </c>
       <c r="E30" s="1">
-        <v>2016.5</v>
+        <v>2013.5</v>
       </c>
       <c r="F30" s="1">
-        <v>115.399539834853</v>
+        <v>93.944522695817497</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>1.1224446145644691</v>
-      </c>
-      <c r="H30" t="s">
-        <v>2</v>
+        <v>0.91376034703998532</v>
+      </c>
+      <c r="H30" s="1">
+        <v>-4.0679999999999898</v>
       </c>
       <c r="I30" s="1">
-        <v>2016.5</v>
-      </c>
-      <c r="J30" t="s">
-        <v>2</v>
-      </c>
-      <c r="K30" t="e">
+        <v>2013.5</v>
+      </c>
+      <c r="J30" s="1">
+        <v>101.46429996346301</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L30" t="s">
-        <v>2</v>
+        <v>0.93227949570488111</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-3.4470000000000001</v>
       </c>
       <c r="M30" s="1">
-        <v>2016.5</v>
+        <v>2013.5</v>
       </c>
       <c r="N30" s="1">
-        <v>67.903298665209903</v>
+        <v>62.332095183351598</v>
       </c>
       <c r="O30">
         <f t="shared" si="3"/>
-        <v>1.015225965719998</v>
-      </c>
-      <c r="P30" t="s">
-        <v>2</v>
+        <v>0.93193059500496578</v>
+      </c>
+      <c r="P30" s="1">
+        <v>-1.881</v>
       </c>
       <c r="Q30" s="1">
-        <v>2016.5</v>
+        <v>2013.5</v>
       </c>
       <c r="R30" s="1">
-        <v>107.842156848004</v>
+        <v>95.781162409578002</v>
       </c>
       <c r="S30">
         <f t="shared" si="4"/>
-        <v>1.0706556653388832</v>
-      </c>
-      <c r="T30" t="s">
-        <v>2</v>
+        <v>0.95091425434947063</v>
+      </c>
+      <c r="T30" s="1">
+        <v>-1.6919999999999999</v>
       </c>
       <c r="U30" s="1">
-        <v>2016.5</v>
+        <v>2013.5</v>
       </c>
       <c r="V30" s="1">
-        <v>79.217502781587896</v>
+        <v>75.907746949238401</v>
       </c>
       <c r="W30">
         <f t="shared" si="5"/>
-        <v>1.028356203090802</v>
-      </c>
-      <c r="X30" t="s">
-        <v>2</v>
+        <v>0.9853908504679515</v>
+      </c>
+      <c r="X30" s="1">
+        <v>-1.0169999999999999</v>
       </c>
       <c r="Y30" s="1">
-        <v>2016.5</v>
+        <v>2013.5</v>
       </c>
       <c r="Z30" s="1">
-        <v>112.159489163628</v>
+        <v>98.732189646988999</v>
       </c>
       <c r="AA30">
         <f t="shared" si="6"/>
-        <v>1.0924615522959291</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC30" t="e">
+        <v>0.9616762876475704</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>-0.35</v>
+      </c>
+      <c r="AC30">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD30" s="1" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE30">
-        <f t="shared" si="12"/>
-        <v>-2.8642857142857125</v>
-      </c>
-      <c r="AH30" s="1"/>
-      <c r="AI30" t="e">
+        <v>0.93538101800254292</v>
+      </c>
+      <c r="AD30" s="1">
+        <f t="shared" si="11"/>
+        <v>-2.4131428585714256</v>
+      </c>
+      <c r="AG30" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.5900929409422651</v>
+      </c>
+      <c r="AH30" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.65918767571839487</v>
+      </c>
+      <c r="AI30">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>88.099179779681265</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>2017.5</v>
-      </c>
-      <c r="B31">
-        <f>B33</f>
-        <v>94.728961173323214</v>
+        <v>2014.5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>86.312512306530706</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2</v>
+        <v>0.91115231537910413</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-3.06</v>
       </c>
       <c r="E31" s="1">
-        <v>2017.5</v>
+        <v>2014.5</v>
       </c>
       <c r="F31" s="1">
-        <v>97.671564978767094</v>
+        <v>105.86592233412399</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>0.9500117787591903</v>
-      </c>
-      <c r="H31" t="s">
-        <v>2</v>
+        <v>1.0297149759859716</v>
+      </c>
+      <c r="H31" s="1">
+        <v>-2.7589999999999999</v>
       </c>
       <c r="I31" s="1">
-        <v>2017.5</v>
+        <v>2014.5</v>
       </c>
       <c r="J31" s="1">
-        <v>101.114862422831</v>
+        <v>114.73712648209499</v>
       </c>
       <c r="K31">
         <f t="shared" si="2"/>
-        <v>0.92906877573462476</v>
-      </c>
-      <c r="L31" t="s">
-        <v>2</v>
+        <v>1.0542335624832893</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-2.1599999999999899</v>
       </c>
       <c r="M31" s="1">
-        <v>2017.5</v>
+        <v>2014.5</v>
       </c>
       <c r="N31" s="1">
-        <v>60.663102848252599</v>
+        <v>68.924147719942795</v>
       </c>
       <c r="O31">
         <f t="shared" si="3"/>
-        <v>0.90697739849629189</v>
-      </c>
-      <c r="P31" t="s">
-        <v>2</v>
+        <v>1.0304887362748627</v>
+      </c>
+      <c r="P31" s="1">
+        <v>-1.0799999999999901</v>
       </c>
       <c r="Q31" s="1">
-        <v>2017.5</v>
-      </c>
-      <c r="R31">
-        <f>R33</f>
-        <v>100.72534087219336</v>
+        <v>2014.5</v>
+      </c>
+      <c r="R31" s="1">
+        <v>103.413542759943</v>
       </c>
       <c r="S31">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T31" t="s">
-        <v>2</v>
+        <v>1.0266884367376885</v>
+      </c>
+      <c r="T31" s="1">
+        <v>-0.630000000000002</v>
       </c>
       <c r="U31" s="1">
-        <v>2017.5</v>
+        <v>2014.5</v>
       </c>
       <c r="V31" s="1">
-        <v>74.718603258938003</v>
+        <v>79.684041778845597</v>
       </c>
       <c r="W31">
         <f t="shared" si="5"/>
-        <v>0.96995406885596003</v>
-      </c>
-      <c r="X31" t="s">
-        <v>2</v>
+        <v>1.0344125448709323</v>
+      </c>
+      <c r="X31" s="1">
+        <v>-0.17099999999999899</v>
       </c>
       <c r="Y31" s="1">
-        <v>2017.5</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>101.809744856295</v>
-      </c>
-      <c r="AA31">
+        <v>2014.5</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA31" t="e">
         <f t="shared" si="6"/>
-        <v>0.99165244718882783</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>8.99999999999989E-3</v>
+      </c>
+      <c r="AC31" t="e">
         <f t="shared" si="10"/>
-        <v>0.96395206700498515</v>
-      </c>
-      <c r="AD31" s="1" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE31" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>9</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD31" s="1">
+        <f t="shared" ref="AD31:AD35" si="12">D31+H31+L31+P31+T31+X31+AB31</f>
+        <v>-9.8509999999999813</v>
       </c>
       <c r="AG31" s="1">
-        <f>_xlfn.STDEV.S(AG4:AG23)</f>
-        <v>0.45402137846439322</v>
-      </c>
-      <c r="AH31" s="1"/>
-      <c r="AI31">
+        <f t="shared" si="7"/>
+        <v>-0.79531793990763633</v>
+      </c>
+      <c r="AH31" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0913356228160138</v>
+      </c>
+      <c r="AI31" t="e">
         <f t="shared" si="9"/>
-        <v>89.740510807266958</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>2018.5</v>
-      </c>
-      <c r="B32">
-        <f>B34</f>
-        <v>94.728961173323214</v>
+        <v>2015.5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>83.878015615407705</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2</v>
+        <v>0.88545271241746437</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-4.3899999999999997</v>
       </c>
       <c r="E32" s="1">
-        <v>2018.5</v>
-      </c>
-      <c r="F32" s="1">
-        <v>119.659692857107</v>
+        <v>2015.5</v>
+      </c>
+      <c r="F32">
+        <f>F36</f>
+        <v>102.81089894099614</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>1.163881398661639</v>
-      </c>
-      <c r="H32" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>-4.17</v>
       </c>
       <c r="I32" s="1">
-        <v>2018.5</v>
+        <v>2015.5</v>
       </c>
       <c r="J32" s="1">
-        <v>115.061204415555</v>
+        <v>97.636829267802199</v>
       </c>
       <c r="K32">
         <f t="shared" si="2"/>
+        <v>0.89711173274529044</v>
+      </c>
+      <c r="L32" s="1">
+        <v>-3.99</v>
+      </c>
+      <c r="M32" s="1">
+        <v>2015.5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P32" s="1">
+        <v>-1.99</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>2015.5</v>
+      </c>
+      <c r="R32" s="1">
+        <v>97.198978809261504</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="4"/>
+        <v>0.96499031889694653</v>
+      </c>
+      <c r="T32" s="1">
+        <v>-2.75</v>
+      </c>
+      <c r="U32" s="1">
+        <v>2015.5</v>
+      </c>
+      <c r="V32" s="1">
+        <v>71.295205741131795</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="5"/>
+        <v>0.92551348502705511</v>
+      </c>
+      <c r="X32" s="1">
+        <v>-1.78999999999999</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>2015.5</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>102.55510844014501</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="6"/>
+        <v>0.9989124754210329</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>-0.97</v>
+      </c>
+      <c r="AC32" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD32" s="1">
+        <f t="shared" si="12"/>
+        <v>-20.049999999999986</v>
+      </c>
+      <c r="AG32" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.1424028744172445</v>
+      </c>
+      <c r="AH32" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.8756720962164366</v>
+      </c>
+      <c r="AI32" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>2016.5</v>
+      </c>
+      <c r="B33">
+        <f>B36</f>
+        <v>94.728961173323214</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2016.5</v>
+      </c>
+      <c r="F33" s="1">
+        <v>115.399539834853</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>1.1224446145644691</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2016.5</v>
+      </c>
+      <c r="J33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2016.5</v>
+      </c>
+      <c r="N33" s="1">
+        <v>67.903298665209903</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="3"/>
+        <v>1.015225965719998</v>
+      </c>
+      <c r="P33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>2016.5</v>
+      </c>
+      <c r="R33" s="1">
+        <v>107.842156848004</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="4"/>
+        <v>1.0706556653388832</v>
+      </c>
+      <c r="T33" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="1">
+        <v>2016.5</v>
+      </c>
+      <c r="V33" s="1">
+        <v>79.217502781587896</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="5"/>
+        <v>1.028356203090802</v>
+      </c>
+      <c r="X33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>2016.5</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>112.159489163628</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="6"/>
+        <v>1.0924615522959291</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC33" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD33" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH33" s="1"/>
+      <c r="AI33" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>2017.5</v>
+      </c>
+      <c r="B34">
+        <f>B36</f>
+        <v>94.728961173323214</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2017.5</v>
+      </c>
+      <c r="F34" s="1">
+        <v>97.671564978767094</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.9500117787591903</v>
+      </c>
+      <c r="H34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2017.5</v>
+      </c>
+      <c r="J34" s="1">
+        <v>101.114862422831</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>0.92906877573462476</v>
+      </c>
+      <c r="L34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2017.5</v>
+      </c>
+      <c r="N34" s="1">
+        <v>60.663102848252599</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="3"/>
+        <v>0.90697739849629189</v>
+      </c>
+      <c r="P34" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>2017.5</v>
+      </c>
+      <c r="R34">
+        <f>R36</f>
+        <v>100.72534087219336</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
+        <v>2</v>
+      </c>
+      <c r="U34" s="1">
+        <v>2017.5</v>
+      </c>
+      <c r="V34" s="1">
+        <v>74.718603258938003</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="5"/>
+        <v>0.96995406885596003</v>
+      </c>
+      <c r="X34" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>2017.5</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>101.809744856295</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="6"/>
+        <v>0.99165244718882783</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="10"/>
+        <v>0.96395206700498515</v>
+      </c>
+      <c r="AD34" s="1" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG34" s="1">
+        <f>_xlfn.STDEV.S(AG7:AG26)</f>
+        <v>0.45402137846439322</v>
+      </c>
+      <c r="AH34" s="1"/>
+      <c r="AI34">
+        <f>(B34*$A$2+$E$2*F34+$I$2*J34+$M$2*N34+$Q$2*R34+$U$2*V34+$Y$2*Z34)/SUM($A$2:$Y$2)</f>
+        <v>89.740510807266958</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>2018.5</v>
+      </c>
+      <c r="B35">
+        <f>B37</f>
+        <v>94.728961173323214</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2018.5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>119.659692857107</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1.163881398661639</v>
+      </c>
+      <c r="H35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2018.5</v>
+      </c>
+      <c r="J35" s="1">
+        <v>115.061204415555</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
         <v>1.057211272007565</v>
       </c>
-      <c r="L32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M32" s="1">
+      <c r="L35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" s="1">
         <v>2018.5</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N35" s="1">
         <v>42.964195499073199</v>
       </c>
-      <c r="O32">
+      <c r="O35">
         <f t="shared" si="3"/>
         <v>0.64236005796986628</v>
       </c>
-      <c r="P32" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="1">
+      <c r="P35" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="1">
         <v>2018.5</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R35" s="1">
         <v>109.448689917835</v>
       </c>
-      <c r="S32">
+      <c r="S35">
         <f t="shared" si="4"/>
         <v>1.086605306768933</v>
       </c>
-      <c r="T32" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="1">
+      <c r="T35" t="s">
+        <v>2</v>
+      </c>
+      <c r="U35" s="1">
         <v>2018.5</v>
       </c>
-      <c r="V32" s="1">
+      <c r="V35" s="1">
         <v>78.405984160383994</v>
       </c>
-      <c r="W32">
+      <c r="W35">
         <f t="shared" si="5"/>
         <v>1.0178215336208538</v>
       </c>
-      <c r="X32" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y32" s="1">
+      <c r="X35" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="1">
         <v>2018.5</v>
       </c>
-      <c r="Z32" s="1">
+      <c r="Z35" s="1">
         <v>101.11901700871501</v>
       </c>
-      <c r="AA32">
+      <c r="AA35">
         <f t="shared" si="6"/>
         <v>0.98492458472967925</v>
       </c>
-      <c r="AB32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC32">
+      <c r="AB35" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC35">
         <f t="shared" si="10"/>
         <v>0.99325773625121949</v>
       </c>
-      <c r="AD32" s="1" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE32" t="e">
+      <c r="AD35" s="1" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AF35" t="s">
         <v>10</v>
       </c>
-      <c r="AG32" s="1">
-        <f>AVERAGE(AG4:AG23)</f>
+      <c r="AG35" s="1">
+        <f>AVERAGE(AG7:AG26)</f>
         <v>-1.29080764374586</v>
       </c>
-      <c r="AH32" s="1"/>
-      <c r="AI32">
-        <f t="shared" si="9"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35">
+        <f>(B35*$A$2+$E$2*F35+$I$2*J35+$M$2*N35+$Q$2*R35+$U$2*V35+$Y$2*Z35)/SUM($A$2:$Y$2)</f>
         <v>90.983539336028159</v>
       </c>
     </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B33">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
         <v>94.728961173323214</v>
       </c>
-      <c r="F33">
+      <c r="F36">
         <v>102.81089894099614</v>
       </c>
-      <c r="J33">
+      <c r="J36">
         <v>108.83463642708084</v>
       </c>
-      <c r="N33">
+      <c r="N36">
         <v>66.884911298592428</v>
       </c>
-      <c r="R33">
+      <c r="R36">
         <v>100.72534087219336</v>
       </c>
-      <c r="V33">
+      <c r="V36">
         <v>77.033135545342873</v>
       </c>
-      <c r="Z33">
+      <c r="Z36">
         <v>102.66676106624749</v>
       </c>
-      <c r="AH33" s="1"/>
-      <c r="AI33">
+      <c r="AH36" s="1"/>
+      <c r="AI36">
         <f t="shared" si="9"/>
         <v>92.735802947704627</v>
       </c>
     </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B34">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>94.728961173323214</v>
       </c>
-      <c r="F34">
+      <c r="F37">
         <v>102.81089894099614</v>
       </c>
-      <c r="J34">
+      <c r="J37">
         <v>108.83463642708082</v>
       </c>
-      <c r="N34">
+      <c r="N37">
         <v>66.884911298592428</v>
       </c>
-      <c r="R34">
+      <c r="R37">
         <v>100.72534087219336</v>
       </c>
-      <c r="V34">
+      <c r="V37">
         <v>77.033135545342873</v>
       </c>
-      <c r="Z34">
+      <c r="Z37">
         <v>102.66676106624749</v>
       </c>
-      <c r="AA34">
-        <v>93.383520760539483</v>
-      </c>
-      <c r="AB34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34">
+      <c r="AB37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37">
         <f t="shared" si="9"/>
         <v>92.735802947704627</v>
       </c>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AB35" s="1"/>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AB38" s="1"/>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AB36" s="1"/>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AB39" s="1"/>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AB37" s="1"/>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB40" s="1"/>
     </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AB38" s="1"/>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AB41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/alllocations.xlsx
+++ b/alllocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weert\Documents\GitHub\MAIO_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F69570-EDB2-4910-8F04-B583DBE2AB08}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26220C1D-8281-4A81-B573-0EBEB50C3305}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +427,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -588,9 +594,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -948,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2932,7 +2939,7 @@
       <c r="M23" s="1">
         <v>2006.5</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="2">
         <v>76.842860375556</v>
       </c>
       <c r="O23">
@@ -3044,7 +3051,7 @@
       <c r="M24" s="1">
         <v>2007.5</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="2">
         <v>74.011785791474693</v>
       </c>
       <c r="O24">
@@ -3644,7 +3651,7 @@
       <c r="U29" s="1">
         <v>2012.5</v>
       </c>
-      <c r="V29" s="1">
+      <c r="V29" s="2">
         <v>79.271206566995602</v>
       </c>
       <c r="W29">
@@ -4419,6 +4426,8 @@
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="Z38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
